--- a/Code/Results/Cases/Case_2_17/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_17/res_line/pl_mw.xlsx
@@ -412,19 +412,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.529604401579206</v>
+        <v>2.529604401579036</v>
       </c>
       <c r="C2">
-        <v>0.6185379717708486</v>
+        <v>0.618537971769598</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.3107952881705494</v>
+        <v>0.3107952881705831</v>
       </c>
       <c r="F2">
-        <v>6.833153613287266</v>
+        <v>6.833153613287351</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -433,10 +433,10 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>2.740778267652601</v>
+        <v>2.740778267652573</v>
       </c>
       <c r="J2">
-        <v>0.7054477272011681</v>
+        <v>0.7054477272011468</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -450,19 +450,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.15729114479899</v>
+        <v>2.157291144799558</v>
       </c>
       <c r="C3">
-        <v>0.5248984544749362</v>
+        <v>0.5248984544743678</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.2587577185039809</v>
+        <v>0.2587577185039702</v>
       </c>
       <c r="F3">
-        <v>5.833390942642353</v>
+        <v>5.833390942642296</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -471,10 +471,10 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>2.34379830817717</v>
+        <v>2.343798308177185</v>
       </c>
       <c r="J3">
-        <v>0.6004406472836976</v>
+        <v>0.600440647283655</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -488,19 +488,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.936264031573444</v>
+        <v>1.936264031573103</v>
       </c>
       <c r="C4">
-        <v>0.4695131612622845</v>
+        <v>0.4695131612622276</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.2296362094343145</v>
+        <v>0.2296362094342186</v>
       </c>
       <c r="F4">
-        <v>5.243649190057454</v>
+        <v>5.243649190057312</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -509,10 +509,10 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>2.110586955241317</v>
+        <v>2.110586955241246</v>
       </c>
       <c r="J4">
-        <v>0.5381573786338052</v>
+        <v>0.5381573786337697</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -529,13 +529,13 @@
         <v>1.847777647207351</v>
       </c>
       <c r="C5">
-        <v>0.447376447739714</v>
+        <v>0.4473764477391455</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.2183301868330965</v>
+        <v>0.2183301868330929</v>
       </c>
       <c r="F5">
         <v>5.008260391232994</v>
@@ -547,10 +547,10 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>2.017693512455764</v>
+        <v>2.017693512455736</v>
       </c>
       <c r="J5">
-        <v>0.5132325060374612</v>
+        <v>0.5132325060374185</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -564,19 +564,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.833171760353252</v>
+        <v>1.833171760352997</v>
       </c>
       <c r="C6">
-        <v>0.4437242814344984</v>
+        <v>0.4437242814346973</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.2164828911745147</v>
+        <v>0.2164828911744578</v>
       </c>
       <c r="F6">
-        <v>4.969442933909733</v>
+        <v>4.969442933909789</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -585,10 +585,10 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>2.00238480420343</v>
+        <v>2.002384804203459</v>
       </c>
       <c r="J6">
-        <v>0.5091187944920677</v>
+        <v>0.5091187944921032</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -602,19 +602,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.935064648164797</v>
+        <v>1.935064648164911</v>
       </c>
       <c r="C7">
-        <v>0.4692129807438903</v>
+        <v>0.4692129807441177</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.2294816370359172</v>
+        <v>0.229481637036006</v>
       </c>
       <c r="F7">
-        <v>5.240456023255632</v>
+        <v>5.240456023255575</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -623,10 +623,10 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>2.109326095765439</v>
+        <v>2.109326095765425</v>
       </c>
       <c r="J7">
-        <v>0.5378195013369549</v>
+        <v>0.5378195013370686</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -640,19 +640,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.399448838853687</v>
+        <v>2.399448838853914</v>
       </c>
       <c r="C8">
-        <v>0.5857492578822416</v>
+        <v>0.5857492578821848</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.2921645722235144</v>
+        <v>0.292164572223454</v>
       </c>
       <c r="F8">
-        <v>6.482685556629519</v>
+        <v>6.482685556629576</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -661,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>2.601377585912132</v>
+        <v>2.601377585912189</v>
       </c>
       <c r="J8">
-        <v>0.6687242138587663</v>
+        <v>0.6687242138587521</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -678,19 +678,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.38807668407992</v>
+        <v>3.388076684079181</v>
       </c>
       <c r="C9">
-        <v>0.8365049835130378</v>
+        <v>0.8365049835137199</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.4465071936619935</v>
+        <v>0.4465071936619189</v>
       </c>
       <c r="F9">
-        <v>9.174411119374042</v>
+        <v>9.174411119374071</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -699,10 +699,10 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>3.678963748772787</v>
+        <v>3.678963748772802</v>
       </c>
       <c r="J9">
-        <v>0.9481279354263989</v>
+        <v>0.9481279354264132</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -716,19 +716,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.194495502328607</v>
+        <v>4.19449550232855</v>
       </c>
       <c r="C10">
-        <v>1.044448362398953</v>
+        <v>1.044448362398697</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.5969101410613042</v>
+        <v>0.5969101410614002</v>
       </c>
       <c r="F10">
-        <v>11.42894186774464</v>
+        <v>11.42894186774481</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -740,7 +740,7 @@
         <v>4.594409220428929</v>
       </c>
       <c r="J10">
-        <v>1.176961065488882</v>
+        <v>1.176961065488911</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -754,19 +754,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.589369822197</v>
+        <v>4.589369822196375</v>
       </c>
       <c r="C11">
-        <v>1.147589624317675</v>
+        <v>1.147589624318329</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.6799176563504155</v>
+        <v>0.679917656350522</v>
       </c>
       <c r="F11">
-        <v>12.55604655334724</v>
+        <v>12.55604655334747</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -775,10 +775,10 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>5.056714939200589</v>
+        <v>5.056714939200646</v>
       </c>
       <c r="J11">
-        <v>1.289371013767436</v>
+        <v>1.289371013767507</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -792,19 +792,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.744228605686828</v>
+        <v>4.744228605686942</v>
       </c>
       <c r="C12">
-        <v>1.188298428006988</v>
+        <v>1.188298428008068</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.7143309814167189</v>
+        <v>0.7143309814166479</v>
       </c>
       <c r="F12">
-        <v>13.00270689206047</v>
+        <v>13.00270689206025</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -813,10 +813,10 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>5.240807006415622</v>
+        <v>5.240807006415451</v>
       </c>
       <c r="J12">
-        <v>1.333525648714826</v>
+        <v>1.333525648714769</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -830,19 +830,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.710613955413351</v>
+        <v>4.71061395541318</v>
       </c>
       <c r="C13">
-        <v>1.179449043387109</v>
+        <v>1.179449043386967</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.7067682492179586</v>
+        <v>0.7067682492180829</v>
       </c>
       <c r="F13">
-        <v>12.90551991666854</v>
+        <v>12.9055199166686</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -851,10 +851,10 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>5.200707891346156</v>
+        <v>5.200707891346241</v>
       </c>
       <c r="J13">
-        <v>1.32393766173611</v>
+        <v>1.323937661736039</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.601994164013149</v>
+        <v>4.601994164013774</v>
       </c>
       <c r="C14">
-        <v>1.150902644582146</v>
+        <v>1.150902644582288</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.6826825789167366</v>
+        <v>0.682682578916662</v>
       </c>
       <c r="F14">
-        <v>12.59235776557966</v>
+        <v>12.59235776557944</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -889,7 +889,7 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>5.071661748050587</v>
+        <v>5.071661748050388</v>
       </c>
       <c r="J14">
         <v>1.292969042816111</v>
@@ -906,19 +906,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.536202093989857</v>
+        <v>4.536202093990255</v>
       </c>
       <c r="C15">
-        <v>1.133647568740059</v>
+        <v>1.13364756873969</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.6683507204539971</v>
+        <v>0.6683507204541534</v>
       </c>
       <c r="F15">
-        <v>12.40331481364217</v>
+        <v>12.40331481364234</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>4.99388238693561</v>
+        <v>4.993882386935809</v>
       </c>
       <c r="J15">
-        <v>1.274220763102448</v>
+        <v>1.274220763102491</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -944,16 +944,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.16935419837813</v>
+        <v>4.169354198378187</v>
       </c>
       <c r="C16">
-        <v>1.037912421366826</v>
+        <v>1.037912421366798</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.5918456992453116</v>
+        <v>0.5918456992453187</v>
       </c>
       <c r="F16">
         <v>11.35772868026709</v>
@@ -965,10 +965,10 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>4.565305605225149</v>
+        <v>4.565305605225035</v>
       </c>
       <c r="J16">
-        <v>1.169812441643103</v>
+        <v>1.169812441643032</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -982,16 +982,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.952271902360337</v>
+        <v>3.952271902360508</v>
       </c>
       <c r="C17">
-        <v>0.9816255168646535</v>
+        <v>0.9816255168638008</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.5491631775991621</v>
+        <v>0.549163177599258</v>
       </c>
       <c r="F17">
         <v>10.74543012862162</v>
@@ -1003,10 +1003,10 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>4.315581598556861</v>
+        <v>4.315581598556918</v>
       </c>
       <c r="J17">
-        <v>1.108127865548951</v>
+        <v>1.108127865548937</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1020,19 +1020,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.829951851194778</v>
+        <v>3.829951851195744</v>
       </c>
       <c r="C18">
-        <v>0.9500229554978716</v>
+        <v>0.9500229554977011</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.5259169258535543</v>
+        <v>0.5259169258535437</v>
       </c>
       <c r="F18">
-        <v>10.40240161787636</v>
+        <v>10.40240161787654</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1041,10 +1041,10 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>4.176075980215785</v>
+        <v>4.176075980215899</v>
       </c>
       <c r="J18">
-        <v>1.073401152056789</v>
+        <v>1.073401152056718</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1058,19 +1058,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.788940155428691</v>
+        <v>3.788940155428747</v>
       </c>
       <c r="C19">
-        <v>0.9394450274836288</v>
+        <v>0.9394450274837141</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.5182490762013643</v>
+        <v>0.5182490762014211</v>
       </c>
       <c r="F19">
-        <v>10.28770081312587</v>
+        <v>10.28770081312581</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1082,7 +1082,7 @@
         <v>4.129491633488243</v>
       </c>
       <c r="J19">
-        <v>1.061762765434636</v>
+        <v>1.061762765434537</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.97510984760612</v>
+        <v>3.975109847605211</v>
       </c>
       <c r="C20">
-        <v>0.9875348662925489</v>
+        <v>0.9875348662915826</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.5535667060588381</v>
+        <v>0.5535667060588843</v>
       </c>
       <c r="F20">
-        <v>10.80963177336807</v>
+        <v>10.80963177336821</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>4.341723209203764</v>
+        <v>4.341723209203991</v>
       </c>
       <c r="J20">
-        <v>1.114614000647151</v>
+        <v>1.114614000647165</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1134,19 +1134,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.633741020742889</v>
+        <v>4.633741020742832</v>
       </c>
       <c r="C21">
-        <v>1.159238390392687</v>
+        <v>1.159238390393966</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.6896671181555725</v>
+        <v>0.689667118155505</v>
       </c>
       <c r="F21">
-        <v>12.68374949261829</v>
+        <v>12.68374949261846</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1155,10 +1155,10 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>5.109296181649881</v>
+        <v>5.10929618164991</v>
       </c>
       <c r="J21">
-        <v>1.302018318179819</v>
+        <v>1.302018318179861</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1172,19 +1172,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.096267500798945</v>
+        <v>5.096267500799172</v>
       </c>
       <c r="C22">
-        <v>1.281419706206037</v>
+        <v>1.28141970620652</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.796755950575978</v>
+        <v>0.7967559505760171</v>
       </c>
       <c r="F22">
-        <v>14.02859897041867</v>
+        <v>14.02859897041822</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1193,10 +1193,10 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>5.665574180953115</v>
+        <v>5.665574180952859</v>
       </c>
       <c r="J22">
-        <v>1.434059021216797</v>
+        <v>1.434059021216726</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1210,19 +1210,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.845901854120939</v>
+        <v>4.845901854120768</v>
       </c>
       <c r="C23">
-        <v>1.215109088716133</v>
+        <v>1.215109088716019</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.7375254151135628</v>
+        <v>0.7375254151135522</v>
       </c>
       <c r="F23">
-        <v>13.29746581646629</v>
+        <v>13.2974658164664</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1231,10 +1231,10 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>5.362571981861066</v>
+        <v>5.362571981861095</v>
       </c>
       <c r="J23">
-        <v>1.362538154738374</v>
+        <v>1.362538154738345</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1248,19 +1248,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.964777167761781</v>
+        <v>3.964777167761895</v>
       </c>
       <c r="C24">
-        <v>0.9848609192436015</v>
+        <v>0.9848609192438857</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.5515719051573811</v>
+        <v>0.5515719051575161</v>
       </c>
       <c r="F24">
-        <v>10.78057857088038</v>
+        <v>10.78057857088018</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1269,10 +1269,10 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>4.329892096240343</v>
+        <v>4.329892096240201</v>
       </c>
       <c r="J24">
-        <v>1.111679352054949</v>
+        <v>1.111679352055006</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1286,19 +1286,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.109412286617442</v>
+        <v>3.109412286617385</v>
       </c>
       <c r="C25">
-        <v>0.765402574424229</v>
+        <v>0.7654025744245416</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.3998965855476246</v>
+        <v>0.3998965855476548</v>
       </c>
       <c r="F25">
-        <v>8.408389702507833</v>
+        <v>8.408389702507918</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1307,10 +1307,10 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>3.370646127908287</v>
+        <v>3.370646127908358</v>
       </c>
       <c r="J25">
-        <v>0.8692578750831643</v>
+        <v>0.8692578750831359</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_17/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_17/res_line/pl_mw.xlsx
@@ -412,19 +412,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.529604401579036</v>
+        <v>2.529604401579206</v>
       </c>
       <c r="C2">
-        <v>0.618537971769598</v>
+        <v>0.6185379717708486</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.3107952881705831</v>
+        <v>0.3107952881705494</v>
       </c>
       <c r="F2">
-        <v>6.833153613287351</v>
+        <v>6.833153613287266</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -433,10 +433,10 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>2.740778267652573</v>
+        <v>2.740778267652601</v>
       </c>
       <c r="J2">
-        <v>0.7054477272011468</v>
+        <v>0.7054477272011681</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -450,19 +450,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.157291144799558</v>
+        <v>2.15729114479899</v>
       </c>
       <c r="C3">
-        <v>0.5248984544743678</v>
+        <v>0.5248984544749362</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.2587577185039702</v>
+        <v>0.2587577185039809</v>
       </c>
       <c r="F3">
-        <v>5.833390942642296</v>
+        <v>5.833390942642353</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -471,10 +471,10 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>2.343798308177185</v>
+        <v>2.34379830817717</v>
       </c>
       <c r="J3">
-        <v>0.600440647283655</v>
+        <v>0.6004406472836976</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -488,19 +488,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.936264031573103</v>
+        <v>1.936264031573444</v>
       </c>
       <c r="C4">
-        <v>0.4695131612622276</v>
+        <v>0.4695131612622845</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.2296362094342186</v>
+        <v>0.2296362094343145</v>
       </c>
       <c r="F4">
-        <v>5.243649190057312</v>
+        <v>5.243649190057454</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -509,10 +509,10 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>2.110586955241246</v>
+        <v>2.110586955241317</v>
       </c>
       <c r="J4">
-        <v>0.5381573786337697</v>
+        <v>0.5381573786338052</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -529,13 +529,13 @@
         <v>1.847777647207351</v>
       </c>
       <c r="C5">
-        <v>0.4473764477391455</v>
+        <v>0.447376447739714</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.2183301868330929</v>
+        <v>0.2183301868330965</v>
       </c>
       <c r="F5">
         <v>5.008260391232994</v>
@@ -547,10 +547,10 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>2.017693512455736</v>
+        <v>2.017693512455764</v>
       </c>
       <c r="J5">
-        <v>0.5132325060374185</v>
+        <v>0.5132325060374612</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -564,19 +564,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.833171760352997</v>
+        <v>1.833171760353252</v>
       </c>
       <c r="C6">
-        <v>0.4437242814346973</v>
+        <v>0.4437242814344984</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.2164828911744578</v>
+        <v>0.2164828911745147</v>
       </c>
       <c r="F6">
-        <v>4.969442933909789</v>
+        <v>4.969442933909733</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -585,10 +585,10 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>2.002384804203459</v>
+        <v>2.00238480420343</v>
       </c>
       <c r="J6">
-        <v>0.5091187944921032</v>
+        <v>0.5091187944920677</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -602,19 +602,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.935064648164911</v>
+        <v>1.935064648164797</v>
       </c>
       <c r="C7">
-        <v>0.4692129807441177</v>
+        <v>0.4692129807438903</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.229481637036006</v>
+        <v>0.2294816370359172</v>
       </c>
       <c r="F7">
-        <v>5.240456023255575</v>
+        <v>5.240456023255632</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -623,10 +623,10 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>2.109326095765425</v>
+        <v>2.109326095765439</v>
       </c>
       <c r="J7">
-        <v>0.5378195013370686</v>
+        <v>0.5378195013369549</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -640,19 +640,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.399448838853914</v>
+        <v>2.399448838853687</v>
       </c>
       <c r="C8">
-        <v>0.5857492578821848</v>
+        <v>0.5857492578822416</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.292164572223454</v>
+        <v>0.2921645722235144</v>
       </c>
       <c r="F8">
-        <v>6.482685556629576</v>
+        <v>6.482685556629519</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -661,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>2.601377585912189</v>
+        <v>2.601377585912132</v>
       </c>
       <c r="J8">
-        <v>0.6687242138587521</v>
+        <v>0.6687242138587663</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -678,19 +678,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.388076684079181</v>
+        <v>3.38807668407992</v>
       </c>
       <c r="C9">
-        <v>0.8365049835137199</v>
+        <v>0.8365049835130378</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.4465071936619189</v>
+        <v>0.4465071936619935</v>
       </c>
       <c r="F9">
-        <v>9.174411119374071</v>
+        <v>9.174411119374042</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -699,10 +699,10 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>3.678963748772802</v>
+        <v>3.678963748772787</v>
       </c>
       <c r="J9">
-        <v>0.9481279354264132</v>
+        <v>0.9481279354263989</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -716,19 +716,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.19449550232855</v>
+        <v>4.194495502328607</v>
       </c>
       <c r="C10">
-        <v>1.044448362398697</v>
+        <v>1.044448362398953</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.5969101410614002</v>
+        <v>0.5969101410613042</v>
       </c>
       <c r="F10">
-        <v>11.42894186774481</v>
+        <v>11.42894186774464</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -740,7 +740,7 @@
         <v>4.594409220428929</v>
       </c>
       <c r="J10">
-        <v>1.176961065488911</v>
+        <v>1.176961065488882</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -754,19 +754,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.589369822196375</v>
+        <v>4.589369822197</v>
       </c>
       <c r="C11">
-        <v>1.147589624318329</v>
+        <v>1.147589624317675</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.679917656350522</v>
+        <v>0.6799176563504155</v>
       </c>
       <c r="F11">
-        <v>12.55604655334747</v>
+        <v>12.55604655334724</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -775,10 +775,10 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>5.056714939200646</v>
+        <v>5.056714939200589</v>
       </c>
       <c r="J11">
-        <v>1.289371013767507</v>
+        <v>1.289371013767436</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -792,19 +792,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.744228605686942</v>
+        <v>4.744228605686828</v>
       </c>
       <c r="C12">
-        <v>1.188298428008068</v>
+        <v>1.188298428006988</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.7143309814166479</v>
+        <v>0.7143309814167189</v>
       </c>
       <c r="F12">
-        <v>13.00270689206025</v>
+        <v>13.00270689206047</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -813,10 +813,10 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>5.240807006415451</v>
+        <v>5.240807006415622</v>
       </c>
       <c r="J12">
-        <v>1.333525648714769</v>
+        <v>1.333525648714826</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -830,19 +830,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.71061395541318</v>
+        <v>4.710613955413351</v>
       </c>
       <c r="C13">
-        <v>1.179449043386967</v>
+        <v>1.179449043387109</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.7067682492180829</v>
+        <v>0.7067682492179586</v>
       </c>
       <c r="F13">
-        <v>12.9055199166686</v>
+        <v>12.90551991666854</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -851,10 +851,10 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>5.200707891346241</v>
+        <v>5.200707891346156</v>
       </c>
       <c r="J13">
-        <v>1.323937661736039</v>
+        <v>1.32393766173611</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.601994164013774</v>
+        <v>4.601994164013149</v>
       </c>
       <c r="C14">
-        <v>1.150902644582288</v>
+        <v>1.150902644582146</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.682682578916662</v>
+        <v>0.6826825789167366</v>
       </c>
       <c r="F14">
-        <v>12.59235776557944</v>
+        <v>12.59235776557966</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -889,7 +889,7 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>5.071661748050388</v>
+        <v>5.071661748050587</v>
       </c>
       <c r="J14">
         <v>1.292969042816111</v>
@@ -906,19 +906,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.536202093990255</v>
+        <v>4.536202093989857</v>
       </c>
       <c r="C15">
-        <v>1.13364756873969</v>
+        <v>1.133647568740059</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.6683507204541534</v>
+        <v>0.6683507204539971</v>
       </c>
       <c r="F15">
-        <v>12.40331481364234</v>
+        <v>12.40331481364217</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>4.993882386935809</v>
+        <v>4.99388238693561</v>
       </c>
       <c r="J15">
-        <v>1.274220763102491</v>
+        <v>1.274220763102448</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -944,16 +944,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.169354198378187</v>
+        <v>4.16935419837813</v>
       </c>
       <c r="C16">
-        <v>1.037912421366798</v>
+        <v>1.037912421366826</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.5918456992453187</v>
+        <v>0.5918456992453116</v>
       </c>
       <c r="F16">
         <v>11.35772868026709</v>
@@ -965,10 +965,10 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>4.565305605225035</v>
+        <v>4.565305605225149</v>
       </c>
       <c r="J16">
-        <v>1.169812441643032</v>
+        <v>1.169812441643103</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -982,16 +982,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.952271902360508</v>
+        <v>3.952271902360337</v>
       </c>
       <c r="C17">
-        <v>0.9816255168638008</v>
+        <v>0.9816255168646535</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.549163177599258</v>
+        <v>0.5491631775991621</v>
       </c>
       <c r="F17">
         <v>10.74543012862162</v>
@@ -1003,10 +1003,10 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>4.315581598556918</v>
+        <v>4.315581598556861</v>
       </c>
       <c r="J17">
-        <v>1.108127865548937</v>
+        <v>1.108127865548951</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1020,19 +1020,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.829951851195744</v>
+        <v>3.829951851194778</v>
       </c>
       <c r="C18">
-        <v>0.9500229554977011</v>
+        <v>0.9500229554978716</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.5259169258535437</v>
+        <v>0.5259169258535543</v>
       </c>
       <c r="F18">
-        <v>10.40240161787654</v>
+        <v>10.40240161787636</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1041,10 +1041,10 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>4.176075980215899</v>
+        <v>4.176075980215785</v>
       </c>
       <c r="J18">
-        <v>1.073401152056718</v>
+        <v>1.073401152056789</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1058,19 +1058,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.788940155428747</v>
+        <v>3.788940155428691</v>
       </c>
       <c r="C19">
-        <v>0.9394450274837141</v>
+        <v>0.9394450274836288</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.5182490762014211</v>
+        <v>0.5182490762013643</v>
       </c>
       <c r="F19">
-        <v>10.28770081312581</v>
+        <v>10.28770081312587</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1082,7 +1082,7 @@
         <v>4.129491633488243</v>
       </c>
       <c r="J19">
-        <v>1.061762765434537</v>
+        <v>1.061762765434636</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.975109847605211</v>
+        <v>3.97510984760612</v>
       </c>
       <c r="C20">
-        <v>0.9875348662915826</v>
+        <v>0.9875348662925489</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.5535667060588843</v>
+        <v>0.5535667060588381</v>
       </c>
       <c r="F20">
-        <v>10.80963177336821</v>
+        <v>10.80963177336807</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>4.341723209203991</v>
+        <v>4.341723209203764</v>
       </c>
       <c r="J20">
-        <v>1.114614000647165</v>
+        <v>1.114614000647151</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1134,19 +1134,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.633741020742832</v>
+        <v>4.633741020742889</v>
       </c>
       <c r="C21">
-        <v>1.159238390393966</v>
+        <v>1.159238390392687</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.689667118155505</v>
+        <v>0.6896671181555725</v>
       </c>
       <c r="F21">
-        <v>12.68374949261846</v>
+        <v>12.68374949261829</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1155,10 +1155,10 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>5.10929618164991</v>
+        <v>5.109296181649881</v>
       </c>
       <c r="J21">
-        <v>1.302018318179861</v>
+        <v>1.302018318179819</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1172,19 +1172,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.096267500799172</v>
+        <v>5.096267500798945</v>
       </c>
       <c r="C22">
-        <v>1.28141970620652</v>
+        <v>1.281419706206037</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.7967559505760171</v>
+        <v>0.796755950575978</v>
       </c>
       <c r="F22">
-        <v>14.02859897041822</v>
+        <v>14.02859897041867</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1193,10 +1193,10 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>5.665574180952859</v>
+        <v>5.665574180953115</v>
       </c>
       <c r="J22">
-        <v>1.434059021216726</v>
+        <v>1.434059021216797</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1210,19 +1210,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.845901854120768</v>
+        <v>4.845901854120939</v>
       </c>
       <c r="C23">
-        <v>1.215109088716019</v>
+        <v>1.215109088716133</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.7375254151135522</v>
+        <v>0.7375254151135628</v>
       </c>
       <c r="F23">
-        <v>13.2974658164664</v>
+        <v>13.29746581646629</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1231,10 +1231,10 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>5.362571981861095</v>
+        <v>5.362571981861066</v>
       </c>
       <c r="J23">
-        <v>1.362538154738345</v>
+        <v>1.362538154738374</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1248,19 +1248,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.964777167761895</v>
+        <v>3.964777167761781</v>
       </c>
       <c r="C24">
-        <v>0.9848609192438857</v>
+        <v>0.9848609192436015</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.5515719051575161</v>
+        <v>0.5515719051573811</v>
       </c>
       <c r="F24">
-        <v>10.78057857088018</v>
+        <v>10.78057857088038</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1269,10 +1269,10 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>4.329892096240201</v>
+        <v>4.329892096240343</v>
       </c>
       <c r="J24">
-        <v>1.111679352055006</v>
+        <v>1.111679352054949</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1286,19 +1286,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.109412286617385</v>
+        <v>3.109412286617442</v>
       </c>
       <c r="C25">
-        <v>0.7654025744245416</v>
+        <v>0.765402574424229</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.3998965855476548</v>
+        <v>0.3998965855476246</v>
       </c>
       <c r="F25">
-        <v>8.408389702507918</v>
+        <v>8.408389702507833</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1307,10 +1307,10 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>3.370646127908358</v>
+        <v>3.370646127908287</v>
       </c>
       <c r="J25">
-        <v>0.8692578750831359</v>
+        <v>0.8692578750831643</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_17/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_17/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,916 +406,991 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.529604401579206</v>
+        <v>2.498473979563471</v>
       </c>
       <c r="C2">
-        <v>0.6185379717708486</v>
+        <v>0.6033546873773048</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.3107952881705494</v>
+        <v>0.3208201217646121</v>
       </c>
       <c r="F2">
-        <v>6.833153613287266</v>
+        <v>6.817712829359408</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.000774223603565375</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>2.740778267652601</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.7054477272011681</v>
+        <v>2.739800714870185</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.6948242840214647</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.15729114479899</v>
+        <v>2.132171485565493</v>
       </c>
       <c r="C3">
-        <v>0.5248984544749362</v>
+        <v>0.5117323247886247</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.2587577185039809</v>
+        <v>0.2682541607521252</v>
       </c>
       <c r="F3">
-        <v>5.833390942642353</v>
+        <v>5.822966982491181</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.0007867709369275389</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>2.34379830817717</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.6004406472836976</v>
+        <v>2.345236502159992</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.5916566753928478</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.936264031573444</v>
+        <v>1.914769289086564</v>
       </c>
       <c r="C4">
-        <v>0.4695131612622845</v>
+        <v>0.4575634714789487</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.2296362094343145</v>
+        <v>0.23877352171999</v>
       </c>
       <c r="F4">
-        <v>5.243649190057454</v>
+        <v>5.236037784526872</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.0007945461473761749</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>2.110586955241317</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.5381573786338052</v>
+        <v>2.11336079658399</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.5304830308178552</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.847777647207351</v>
+        <v>1.827750605431305</v>
       </c>
       <c r="C5">
-        <v>0.447376447739714</v>
+        <v>0.4359193553610794</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.2183301868330965</v>
+        <v>0.2273139520292151</v>
       </c>
       <c r="F5">
-        <v>5.008260391232994</v>
+        <v>5.00174360476845</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.0007977393912862394</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>2.017693512455764</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.5132325060374612</v>
+        <v>2.020982670390723</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.5060075249218201</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.833171760353252</v>
+        <v>1.81338803610052</v>
       </c>
       <c r="C6">
-        <v>0.4437242814344984</v>
+        <v>0.4323488587816087</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.2164828911745147</v>
+        <v>0.2254407605255224</v>
       </c>
       <c r="F6">
-        <v>4.969442933909733</v>
+        <v>4.963105188008115</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.0007982713056236767</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>2.00238480420343</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.5091187944920677</v>
+        <v>2.00575798253594</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.5019683157117925</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.935064648164797</v>
+        <v>1.913589729707979</v>
       </c>
       <c r="C7">
-        <v>0.4692129807438903</v>
+        <v>0.4572699440281554</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.2294816370359172</v>
+        <v>0.2386169060264134</v>
       </c>
       <c r="F7">
-        <v>5.240456023255632</v>
+        <v>5.23285957059943</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.0007945891038247473</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>2.109326095765439</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0.5378195013369549</v>
+        <v>2.11210699478201</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.5301512226801322</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.399448838853687</v>
+        <v>2.370409294627848</v>
       </c>
       <c r="C8">
-        <v>0.5857492578822416</v>
+        <v>0.5712677203297858</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.2921645722235144</v>
+        <v>0.302015516109444</v>
       </c>
       <c r="F8">
-        <v>6.482685556629519</v>
+        <v>6.469041019385713</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.0007785396901858302</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>2.601377585912132</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0.6687242138587663</v>
+        <v>2.601269213720286</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.6587405908278186</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.38807668407992</v>
+        <v>3.343259480417032</v>
       </c>
       <c r="C9">
-        <v>0.8365049835130378</v>
+        <v>0.81672277221125</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.4465071936619935</v>
+        <v>0.4573756082669789</v>
       </c>
       <c r="F9">
-        <v>9.174411119374042</v>
+        <v>9.145770461717007</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.0007472446012388384</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>3.678963748772787</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0.9481279354263989</v>
+        <v>3.671499378072056</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.9333164765317576</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.194495502328607</v>
+        <v>4.13666056683104</v>
       </c>
       <c r="C10">
-        <v>1.044448362398953</v>
+        <v>1.020276036021102</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.5969101410613042</v>
+        <v>0.6080126092188358</v>
       </c>
       <c r="F10">
-        <v>11.42894186774464</v>
+        <v>11.38515630903822</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.0007236513058058152</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>4.594409220428929</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>1.176961065488882</v>
+        <v>4.579379095176421</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.158164373292621</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.589369822197</v>
+        <v>4.524982740641349</v>
       </c>
       <c r="C11">
-        <v>1.147589624317675</v>
+        <v>1.121198888978171</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.6799176563504155</v>
+        <v>0.6908817182553193</v>
       </c>
       <c r="F11">
-        <v>12.55604655334724</v>
+        <v>12.50354983241266</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.0007125530970113164</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>5.056714939200589</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>1.289371013767436</v>
+        <v>5.037304177314724</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1.268566876463808</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.744228605686828</v>
+        <v>4.677225116266186</v>
       </c>
       <c r="C12">
-        <v>1.188298428006988</v>
+        <v>1.161019875643206</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.7143309814167189</v>
+        <v>0.7251852592010337</v>
       </c>
       <c r="F12">
-        <v>13.00270689206047</v>
+        <v>12.9465095093675</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.0007082688962882021</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>5.240807006415622</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>1.333525648714826</v>
+        <v>5.219531656156988</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1.311919505530227</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.710613955413351</v>
+        <v>4.644180938606326</v>
       </c>
       <c r="C13">
-        <v>1.179449043387109</v>
+        <v>1.152364168672079</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.7067682492179586</v>
+        <v>0.7176492480981764</v>
       </c>
       <c r="F13">
-        <v>12.90551991666854</v>
+        <v>12.85014058587421</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.0007091957888754052</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>5.200707891346156</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>1.32393766173611</v>
+        <v>5.179844862558213</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1.302506405896906</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.601994164013149</v>
+        <v>4.537394878471105</v>
       </c>
       <c r="C14">
-        <v>1.150902644582146</v>
+        <v>1.124439946422484</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.6826825789167366</v>
+        <v>0.6936389412904269</v>
       </c>
       <c r="F14">
-        <v>12.59235776557966</v>
+        <v>12.53956575128575</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.0007122024743316701</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>5.071661748050587</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>1.292969042816111</v>
+        <v>5.052102266677906</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1.272099867663243</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.536202093989857</v>
+        <v>4.472706695896932</v>
       </c>
       <c r="C15">
-        <v>1.133647568740059</v>
+        <v>1.107559139641268</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.6683507204539971</v>
+        <v>0.6793448576768313</v>
       </c>
       <c r="F15">
-        <v>12.40331481364217</v>
+        <v>12.35204968953843</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.0007140324846575065</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>4.99388238693561</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>1.274220763102448</v>
+        <v>4.975091763310644</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1.25368989893407</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.16935419837813</v>
+        <v>4.111931440825686</v>
       </c>
       <c r="C16">
-        <v>1.037912421366826</v>
+        <v>1.013879430620989</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.5918456992453116</v>
+        <v>0.6029507036108441</v>
       </c>
       <c r="F16">
-        <v>11.35772868026709</v>
+        <v>11.31446552376758</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.0007243670049460274</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>4.565305605225149</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>1.169812441643103</v>
+        <v>4.550537693531936</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1.151141990365531</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.952271902360337</v>
+        <v>3.898387521859206</v>
       </c>
       <c r="C17">
-        <v>0.9816255168646535</v>
+        <v>0.9587876897667797</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.5491631775991621</v>
+        <v>0.5602617217296704</v>
       </c>
       <c r="F17">
-        <v>10.74543012862162</v>
+        <v>10.7065320556747</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.0007305957844952003</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>4.315581598556861</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>1.108127865548951</v>
+        <v>4.303001881527848</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1.090540961965488</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.829951851194778</v>
+        <v>3.778046878012162</v>
       </c>
       <c r="C18">
-        <v>0.9500229554978716</v>
+        <v>0.9278529950065035</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.5259169258535543</v>
+        <v>0.5369905674201725</v>
       </c>
       <c r="F18">
-        <v>10.40240161787636</v>
+        <v>10.36585421578152</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.00073414622142108</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>4.176075980215785</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>1.073401152056789</v>
+        <v>4.164672256713118</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1.056420269878117</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.788940155428691</v>
+        <v>3.737696832696429</v>
       </c>
       <c r="C19">
-        <v>0.9394450274836288</v>
+        <v>0.9174982042489717</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.5182490762013643</v>
+        <v>0.529311113198812</v>
       </c>
       <c r="F19">
-        <v>10.28770081312587</v>
+        <v>10.25192492718247</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.0007353435298475862</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>4.129491633488243</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>1.061762765434636</v>
+        <v>4.118473465628398</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1.044984437905796</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.97510984760612</v>
+        <v>3.920854829998973</v>
       </c>
       <c r="C20">
-        <v>0.9875348662925489</v>
+        <v>0.9645719277432647</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.5535667060588381</v>
+        <v>0.5646682477920386</v>
       </c>
       <c r="F20">
-        <v>10.80963177336807</v>
+        <v>10.77028636402662</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.0007299362289221456</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>4.341723209203764</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>1.114614000647151</v>
+        <v>4.328919495495455</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1.096913612054422</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.633741020742889</v>
+        <v>4.568607266207948</v>
       </c>
       <c r="C21">
-        <v>1.159238390392687</v>
+        <v>1.132594408865913</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.6896671181555725</v>
+        <v>0.7006031557811454</v>
       </c>
       <c r="F21">
-        <v>12.68374949261829</v>
+        <v>12.630209970088</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.0007113218393050503</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>5.109296181649881</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>1.302018318179819</v>
+        <v>5.089360177288398</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1.280985328168569</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.096267500798945</v>
+        <v>5.023194489293815</v>
       </c>
       <c r="C22">
-        <v>1.281419706206037</v>
+        <v>1.252076849953909</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.796755950575978</v>
+        <v>0.8072250456454313</v>
       </c>
       <c r="F22">
-        <v>14.02859897041867</v>
+        <v>13.96329914490371</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.0006986578965672741</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>5.665574180953115</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>1.434059021216797</v>
+        <v>5.639706793860597</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1.410591399249469</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.845901854120939</v>
+        <v>4.777163780423734</v>
       </c>
       <c r="C23">
-        <v>1.215109088716133</v>
+        <v>1.187241282595863</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.7375254151135628</v>
+        <v>0.7482886727915457</v>
       </c>
       <c r="F23">
-        <v>13.29746581646629</v>
+        <v>13.23874214019554</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.0007054753790479324</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>5.362571981861066</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>1.362538154738374</v>
+        <v>5.340022859016727</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1.340400173659049</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.964777167761781</v>
+        <v>3.910689883040561</v>
       </c>
       <c r="C24">
-        <v>0.9848609192436015</v>
+        <v>0.9619546024682677</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.5515719051573811</v>
+        <v>0.562672156249981</v>
       </c>
       <c r="F24">
-        <v>10.78057857088038</v>
+        <v>10.74143588796764</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.0007302345069285613</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>4.329892096240343</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>1.111679352054949</v>
+        <v>4.317189902272276</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1.094030321818721</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.109412286617442</v>
+        <v>3.069034898211669</v>
       </c>
       <c r="C25">
-        <v>0.765402574424229</v>
+        <v>0.7471135724583746</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.3998965855476246</v>
+        <v>0.4105513763619175</v>
       </c>
       <c r="F25">
-        <v>8.408389702507833</v>
+        <v>8.384316458895285</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.000755753893272246</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>3.370646127908287</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0.8692578750831643</v>
+        <v>3.36544221400132</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.8558050268250099</v>
       </c>
       <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_2_17/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_17/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,28 +409,34 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.498473979563471</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0.6033546873773048</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.3208201217646121</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>6.817712829359408</v>
+        <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.000774223603565375</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -439,10 +445,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>2.739800714870185</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.6948242840214647</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,28 +456,34 @@
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.132171485565493</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0.5117323247886247</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.2682541607521252</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>5.822966982491181</v>
+        <v>1.260820407314654</v>
       </c>
       <c r="G3">
-        <v>0.0007867709369275389</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -480,10 +492,10 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>2.345236502159992</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.5916566753928478</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -491,28 +503,34 @@
       <c r="M3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.914769289086564</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0.4575634714789487</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.23877352171999</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>5.236037784526872</v>
+        <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.0007945461473761749</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -521,10 +539,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>2.11336079658399</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.5304830308178552</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -532,28 +550,34 @@
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.827750605431305</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0.4359193553610794</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.2273139520292151</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>5.00174360476845</v>
+        <v>1.090973950927989</v>
       </c>
       <c r="G5">
-        <v>0.0007977393912862394</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -562,10 +586,10 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>2.020982670390723</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.5060075249218201</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -573,28 +597,34 @@
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.81338803610052</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0.4323488587816087</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.2254407605255224</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>4.963105188008115</v>
+        <v>1.082851457025441</v>
       </c>
       <c r="G6">
-        <v>0.0007982713056236767</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -603,10 +633,10 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>2.00575798253594</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.5019683157117925</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -614,28 +644,34 @@
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.913589729707979</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>0.4572699440281554</v>
+        <v>0</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.2386169060264134</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>5.23285957059943</v>
+        <v>1.139311062524627</v>
       </c>
       <c r="G7">
-        <v>0.0007945891038247473</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -644,10 +680,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>2.11210699478201</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0.5301512226801322</v>
+        <v>0</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -655,28 +691,34 @@
       <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.370409294627848</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>0.5712677203297858</v>
+        <v>0</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.302015516109444</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>6.469041019385713</v>
+        <v>1.390742831773494</v>
       </c>
       <c r="G8">
-        <v>0.0007785396901858302</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -685,10 +727,10 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>2.601269213720286</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0.6587405908278186</v>
+        <v>0</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -696,28 +738,34 @@
       <c r="M8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.343259480417032</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>0.81672277221125</v>
+        <v>0</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.4573756082669789</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>9.145770461717007</v>
+        <v>1.895061171842784</v>
       </c>
       <c r="G9">
-        <v>0.0007472446012388384</v>
+        <v>0</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -726,10 +774,10 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>3.671499378072056</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0.9333164765317576</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -737,28 +785,34 @@
       <c r="M9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.13666056683104</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>1.020276036021102</v>
+        <v>0</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.6080126092188358</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>11.38515630903822</v>
+        <v>2.275587181990787</v>
       </c>
       <c r="G10">
-        <v>0.0007236513058058152</v>
+        <v>0</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -767,10 +821,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>4.579379095176421</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>1.158164373292621</v>
+        <v>0</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -778,28 +832,34 @@
       <c r="M10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.524982740641349</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>1.121198888978171</v>
+        <v>0</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.6908817182553193</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>12.50354983241266</v>
+        <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.0007125530970113164</v>
+        <v>0</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -808,10 +868,10 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>5.037304177314724</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>1.268566876463808</v>
+        <v>0</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -819,28 +879,34 @@
       <c r="M11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.677225116266186</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>1.161019875643206</v>
+        <v>0</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.7251852592010337</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>12.9465095093675</v>
+        <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>0.0007082688962882021</v>
+        <v>0</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -849,10 +915,10 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5.219531656156988</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>1.311919505530227</v>
+        <v>0</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -860,28 +926,34 @@
       <c r="M12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.644180938606326</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>1.152364168672079</v>
+        <v>0</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.7176492480981764</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>12.85014058587421</v>
+        <v>2.504295469236098</v>
       </c>
       <c r="G13">
-        <v>0.0007091957888754052</v>
+        <v>0</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -890,10 +962,10 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5.179844862558213</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>1.302506405896906</v>
+        <v>0</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -901,28 +973,34 @@
       <c r="M13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.537394878471105</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>1.124439946422484</v>
+        <v>0</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.6936389412904269</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>12.53956575128575</v>
+        <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.0007122024743316701</v>
+        <v>0</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -931,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5.052102266677906</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>1.272099867663243</v>
+        <v>0</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -942,28 +1020,34 @@
       <c r="M14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.472706695896932</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>1.107559139641268</v>
+        <v>0</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.6793448576768313</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>12.35204968953843</v>
+        <v>2.428326063099846</v>
       </c>
       <c r="G15">
-        <v>0.0007140324846575065</v>
+        <v>0</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -972,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>4.975091763310644</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>1.25368989893407</v>
+        <v>0</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -983,28 +1067,34 @@
       <c r="M15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.111931440825686</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>1.013879430620989</v>
+        <v>0</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.6029507036108441</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>11.31446552376758</v>
+        <v>2.264147245220144</v>
       </c>
       <c r="G16">
-        <v>0.0007243670049460274</v>
+        <v>0</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1013,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>4.550537693531936</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>1.151141990365531</v>
+        <v>0</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1024,28 +1114,34 @@
       <c r="M16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.898387521859206</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>0.9587876897667797</v>
+        <v>0</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.5602617217296704</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>10.7065320556747</v>
+        <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>0.0007305957844952003</v>
+        <v>0</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1054,10 +1150,10 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>4.303001881527848</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>1.090540961965488</v>
+        <v>0</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1065,28 +1161,34 @@
       <c r="M17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.778046878012162</v>
+        <v>0</v>
       </c>
       <c r="C18">
-        <v>0.9278529950065035</v>
+        <v>0</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.5369905674201725</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>10.36585421578152</v>
+        <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.00073414622142108</v>
+        <v>0</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1095,10 +1197,10 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>4.164672256713118</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>1.056420269878117</v>
+        <v>0</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1106,28 +1208,34 @@
       <c r="M18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.737696832696429</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <v>0.9174982042489717</v>
+        <v>0</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.529311113198812</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>10.25192492718247</v>
+        <v>2.087706772594757</v>
       </c>
       <c r="G19">
-        <v>0.0007353435298475862</v>
+        <v>0</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1136,10 +1244,10 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>4.118473465628398</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>1.044984437905796</v>
+        <v>0</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1147,28 +1255,34 @@
       <c r="M19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.920854829998973</v>
+        <v>0</v>
       </c>
       <c r="C20">
-        <v>0.9645719277432647</v>
+        <v>0</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.5646682477920386</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>10.77028636402662</v>
+        <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.0007299362289221456</v>
+        <v>0</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1177,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>4.328919495495455</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>1.096913612054422</v>
+        <v>0</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1188,28 +1302,34 @@
       <c r="M20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.568607266207948</v>
+        <v>0</v>
       </c>
       <c r="C21">
-        <v>1.132594408865913</v>
+        <v>0</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.7006031557811454</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>12.630209970088</v>
+        <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.0007113218393050503</v>
+        <v>0</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1218,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>5.089360177288398</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>1.280985328168569</v>
+        <v>0</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1229,28 +1349,34 @@
       <c r="M21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.023194489293815</v>
+        <v>0</v>
       </c>
       <c r="C22">
-        <v>1.252076849953909</v>
+        <v>0</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.8072250456454313</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>13.96329914490371</v>
+        <v>2.667416158031983</v>
       </c>
       <c r="G22">
-        <v>0.0006986578965672741</v>
+        <v>0</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1259,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>5.639706793860597</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>1.410591399249469</v>
+        <v>0</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1270,28 +1396,34 @@
       <c r="M22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.777163780423734</v>
+        <v>0</v>
       </c>
       <c r="C23">
-        <v>1.187241282595863</v>
+        <v>0</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.7482886727915457</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>13.23874214019554</v>
+        <v>2.562285531758775</v>
       </c>
       <c r="G23">
-        <v>0.0007054753790479324</v>
+        <v>0</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1300,10 +1432,10 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>5.340022859016727</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>1.340400173659049</v>
+        <v>0</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1311,28 +1443,34 @@
       <c r="M23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.910689883040561</v>
+        <v>0</v>
       </c>
       <c r="C24">
-        <v>0.9619546024682677</v>
+        <v>0</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.562672156249981</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>10.74143588796764</v>
+        <v>2.170038921572853</v>
       </c>
       <c r="G24">
-        <v>0.0007302345069285613</v>
+        <v>0</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1341,10 +1479,10 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>4.317189902272276</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>1.094030321818721</v>
+        <v>0</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1352,28 +1490,34 @@
       <c r="M24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.069034898211669</v>
+        <v>0</v>
       </c>
       <c r="C25">
-        <v>0.7471135724583746</v>
+        <v>0</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.4105513763619175</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>8.384316458895285</v>
+        <v>1.757113814925077</v>
       </c>
       <c r="G25">
-        <v>0.000755753893272246</v>
+        <v>0</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1382,15 +1526,21 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>3.36544221400132</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0.8558050268250099</v>
+        <v>0</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_2_17/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_17/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.7984524762134697</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.1027035670304883</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.4163454688218096</v>
       </c>
       <c r="F2">
-        <v>1.45952168114772</v>
+        <v>1.517262145253994</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0008164911832426383</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.03404177303425815</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.8059366010078008</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.6124515108145161</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.556048219309588</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.6941698874752262</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.09410259411237121</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.3707511798738992</v>
       </c>
       <c r="F3">
-        <v>1.260820407314654</v>
+        <v>1.416200150747727</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.0008202726570040557</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.03534270572712828</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.7038800403713594</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.5334337424033961</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1.570046420841024</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>0.6302647965204926</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.08881950933614746</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.3431644896749617</v>
       </c>
       <c r="F4">
-        <v>1.139972825279813</v>
+        <v>1.356722040836345</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.0008226667971327135</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.03617601105219137</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.6412624653538046</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.4852460574943152</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>1.582378406371433</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.6042440367172617</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.08666542520019505</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.3320163511951151</v>
       </c>
       <c r="F5">
-        <v>1.090973950927989</v>
+        <v>1.333092375389143</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.0008236609804596803</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.03652414996469933</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.6157472797832781</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.4656810084208587</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>1.588303754419684</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.5999242932270477</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.08630765106452998</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.3301706139263132</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>1.329204311975673</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.0008238271949020691</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.03658247174239104</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.6115103568895677</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.4624362741959658</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>1.589340885766134</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>0.6299137992660917</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>0.08879046424638659</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.3430137743120483</v>
       </c>
       <c r="F7">
-        <v>1.139311062524627</v>
+        <v>1.356400950806901</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.0008226801294770835</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.03618067167137795</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.6409183626973345</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.4849819197226495</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>1.582454724807846</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>0.7624635020735582</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>0.09973795759101733</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.4005341877546655</v>
       </c>
       <c r="F8">
-        <v>1.390742831773494</v>
+        <v>1.481857373823985</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.0008177802589597137</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.03448309319686604</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.7707321264831677</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.5851309185382618</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1.56007461904521</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1.023892295825277</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>0.121223387758576</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.5170113223336941</v>
       </c>
       <c r="F9">
-        <v>1.895061171842784</v>
+        <v>1.750193957416016</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.0008087274777162814</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.03143386073335996</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1.026127501567203</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.7846778676868453</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.547737177966184</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1.217652358659166</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>0.1370717526031058</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.605492267564486</v>
       </c>
       <c r="F10">
-        <v>2.275587181990787</v>
+        <v>1.963770142004833</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.0008023888456990032</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.02937253654058658</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.214990491891882</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.9340257390502984</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.560715748479396</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>1.306352528301289</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>0.1443081659180478</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.6465354958136373</v>
       </c>
       <c r="F11">
-        <v>2.451628164639231</v>
+        <v>2.065179078145277</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.0007995668342327122</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.02847567439765086</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1.301348878738651</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1.002760701253891</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1.57207950555798</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>1.340037707184536</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>0.1470534264435059</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>0.6622058933428576</v>
       </c>
       <c r="F12">
-        <v>2.518780942186339</v>
+        <v>2.104252763386455</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.0007985065012657722</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.02814211851518156</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1.334129738864277</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1.028920927724023</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.577228689292838</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>1.332778445204042</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>0.1464619447569788</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>0.6588250513652412</v>
       </c>
       <c r="F13">
-        <v>2.504295469236098</v>
+        <v>2.095806622686894</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.0007987345027109024</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.02821368270428071</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1.327066036702547</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1.0232807022171</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1.576081075984547</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>1.30912180020465</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>0.1445339134281483</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>0.6478220535600485</v>
       </c>
       <c r="F14">
-        <v>2.457142640142251</v>
+        <v>2.068379853300982</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.0007994794368562872</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.02844810981619084</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1.304044109943703</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1.004910173210682</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.572485812043226</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>1.294644470620625</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.1433536230201184</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>0.6410995393190717</v>
       </c>
       <c r="F15">
-        <v>2.428326063099846</v>
+        <v>2.05166961116916</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.0007999367949510746</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.02859249919544027</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1.28995324524746</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.9936753952730157</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.570395666313516</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>1.211868168800237</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>0.1365994708301201</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>0.6028271379639136</v>
       </c>
       <c r="F16">
-        <v>2.264147245220144</v>
+        <v>1.957233487007741</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.0008025744626177376</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.02943198664020841</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1.209356952035591</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.9295512133409076</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.560088062941702</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>1.161241535642887</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.1324636746610537</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>0.5795610674643257</v>
       </c>
       <c r="F17">
-        <v>2.1642275708721</v>
+        <v>1.900430861164608</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.0008042079581535363</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.02995757887660666</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1.160037677789973</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.890428850722671</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.555204929386605</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>1.132173893258397</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>0.1300873345745117</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>0.5662527440705389</v>
       </c>
       <c r="F18">
-        <v>2.107028586650728</v>
+        <v>1.868155797453952</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.0008051533211363069</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.03026371770150771</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1.131711327038118</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.8680004947599258</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.552906268860283</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>1.12234045537565</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>0.1292831367836271</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>0.5617590189705197</v>
       </c>
       <c r="F19">
-        <v>2.087706772594757</v>
+        <v>1.857294303561176</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.0008054744200717834</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.0303680235731365</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1.122127079305045</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.8604188067804941</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.552213792591999</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>1.166625388509573</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>0.1329036747902848</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>0.582030052924992</v>
       </c>
       <c r="F20">
-        <v>2.174835551210137</v>
+        <v>1.906436155919891</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.0008040334712682097</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.02990123073096917</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1.16528347203834</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.8945857345930435</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.555671539102832</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>1.31606758034431</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>0.1451000781886336</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>0.6510503018055402</v>
       </c>
       <c r="F21">
-        <v>2.470978708896922</v>
+        <v>2.076417004234827</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.0007992604106552004</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.02837908663839261</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1.310803943198408</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1.010302320937996</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1.57351836029963</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>1.414306722494217</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.1531007983480492</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>0.6969138399427521</v>
       </c>
       <c r="F22">
-        <v>2.667416158031983</v>
+        <v>2.191459969152319</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.0007961890516107635</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.02741973756279137</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1.406377229894332</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1.086707051784536</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>1.590144977447437</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>1.361816811886712</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.1488275530723513</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>0.6723615314689937</v>
       </c>
       <c r="F23">
-        <v>2.562285531758775</v>
+        <v>2.129676477097576</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.0007978240788092751</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.02792844781769155</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1.355319930894041</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1.045851183986365</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>1.580795597527327</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>1.164191230589438</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>0.1327047465037197</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>0.5809136149425456</v>
       </c>
       <c r="F24">
-        <v>2.170038921572853</v>
+        <v>1.903719978348136</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.0008041123372995359</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.02992669337988119</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1.162911762499249</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.892706210553861</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1.555459004854299</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>0.9529317871905505</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>0.115403999197099</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>0.4850418220536952</v>
       </c>
       <c r="F25">
-        <v>1.757113814925077</v>
+        <v>1.674933174079612</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.0008111196203890524</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.03222798214785705</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.9568764585715712</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.7302765645327725</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.547418793694888</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_17/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_17/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7984524762134697</v>
+        <v>0.2901895501337322</v>
       </c>
       <c r="C2">
-        <v>0.1027035670304883</v>
+        <v>0.04252466767447061</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.4163454688218096</v>
+        <v>0.4576337759361593</v>
       </c>
       <c r="F2">
-        <v>1.517262145253994</v>
+        <v>2.33141574223427</v>
       </c>
       <c r="G2">
-        <v>0.0008164911832426383</v>
+        <v>0.002459547653490467</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.03404177303425815</v>
+        <v>0.06334602002779111</v>
       </c>
       <c r="K2">
-        <v>0.8059366010078008</v>
+        <v>0.2558571640329035</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.6124515108145161</v>
+        <v>0.3865600791276904</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.556048219309588</v>
+        <v>3.189339725869459</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6941698874752262</v>
+        <v>0.2588489828966374</v>
       </c>
       <c r="C3">
-        <v>0.09410259411237121</v>
+        <v>0.03959513240245371</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.3707511798738992</v>
+        <v>0.4480533624814242</v>
       </c>
       <c r="F3">
-        <v>1.416200150747727</v>
+        <v>2.322064375550255</v>
       </c>
       <c r="G3">
-        <v>0.0008202726570040557</v>
+        <v>0.002461919933249564</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03534270572712828</v>
+        <v>0.06387607611698343</v>
       </c>
       <c r="K3">
-        <v>0.7038800403713594</v>
+        <v>0.2242407072877626</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.5334337424033961</v>
+        <v>0.3658086672436909</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.570046420841024</v>
+        <v>3.217667543967266</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6302647965204926</v>
+        <v>0.2396227967419975</v>
       </c>
       <c r="C4">
-        <v>0.08881950933614746</v>
+        <v>0.03778527064849868</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.3431644896749617</v>
+        <v>0.4423786807834631</v>
       </c>
       <c r="F4">
-        <v>1.356722040836345</v>
+        <v>2.31759659313029</v>
       </c>
       <c r="G4">
-        <v>0.0008226667971327135</v>
+        <v>0.002463453323096666</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.03617601105219137</v>
+        <v>0.06421977872631057</v>
       </c>
       <c r="K4">
-        <v>0.6412624653538046</v>
+        <v>0.2047932749426735</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.4852460574943152</v>
+        <v>0.3532120404919326</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.582378406371433</v>
+        <v>3.236867881036929</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6042440367172617</v>
+        <v>0.2317926763755338</v>
       </c>
       <c r="C5">
-        <v>0.08666542520019505</v>
+        <v>0.03704498807490353</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.3320163511951151</v>
+        <v>0.4401185156980816</v>
       </c>
       <c r="F5">
-        <v>1.333092375389143</v>
+        <v>2.316096277690761</v>
       </c>
       <c r="G5">
-        <v>0.0008236609804596803</v>
+        <v>0.002464097561305009</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.03652414996469933</v>
+        <v>0.06436443402015257</v>
       </c>
       <c r="K5">
-        <v>0.6157472797832781</v>
+        <v>0.1968599530749344</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.4656810084208587</v>
+        <v>0.3481154488998399</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.588303754419684</v>
+        <v>3.245146269155157</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5999242932270477</v>
+        <v>0.2304927875227918</v>
       </c>
       <c r="C6">
-        <v>0.08630765106452998</v>
+        <v>0.03692190002658435</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.3301706139263132</v>
+        <v>0.4397463789561087</v>
       </c>
       <c r="F6">
-        <v>1.329204311975673</v>
+        <v>2.315866498993245</v>
       </c>
       <c r="G6">
-        <v>0.0008238271949020691</v>
+        <v>0.002464205708208681</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.03658247174239104</v>
+        <v>0.06438873153370395</v>
       </c>
       <c r="K6">
-        <v>0.6115103568895677</v>
+        <v>0.1955421398806578</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.4624362741959658</v>
+        <v>0.34727138295694</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.589340885766134</v>
+        <v>3.246548307358438</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6299137992660917</v>
+        <v>0.2395171773854656</v>
       </c>
       <c r="C7">
-        <v>0.08879046424638659</v>
+        <v>0.03777529800986912</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.3430137743120483</v>
+        <v>0.4423479874861798</v>
       </c>
       <c r="F7">
-        <v>1.356400950806901</v>
+        <v>2.317575062320245</v>
       </c>
       <c r="G7">
-        <v>0.0008226801294770835</v>
+        <v>0.002463461932942235</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.03618067167137795</v>
+        <v>0.06422171099144336</v>
       </c>
       <c r="K7">
-        <v>0.6409183626973345</v>
+        <v>0.2046863165859065</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.4849819197226495</v>
+        <v>0.3531431574459347</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.582454724807846</v>
+        <v>3.236977688033306</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7624635020735582</v>
+        <v>0.2793800253742234</v>
       </c>
       <c r="C8">
-        <v>0.09973795759101733</v>
+        <v>0.04151689738684183</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.4005341877546655</v>
+        <v>0.4542873775857004</v>
       </c>
       <c r="F8">
-        <v>1.481857373823985</v>
+        <v>2.327926955347252</v>
       </c>
       <c r="G8">
-        <v>0.0008177802589597137</v>
+        <v>0.002460349710202625</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.03448309319686604</v>
+        <v>0.06352499978990611</v>
       </c>
       <c r="K8">
-        <v>0.7707321264831677</v>
+        <v>0.2449632714407102</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.5851309185382618</v>
+        <v>0.3793750580384696</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.56007461904521</v>
+        <v>3.198731960483997</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.023892295825277</v>
+        <v>0.3576717454994309</v>
       </c>
       <c r="C9">
-        <v>0.121223387758576</v>
+        <v>0.04876430401358789</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.5170113223336941</v>
+        <v>0.4793470151554686</v>
       </c>
       <c r="F9">
-        <v>1.750193957416016</v>
+        <v>2.358340538330339</v>
       </c>
       <c r="G9">
-        <v>0.0008087274777162814</v>
+        <v>0.002454853399063452</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.03143386073335996</v>
+        <v>0.06230326151378041</v>
       </c>
       <c r="K9">
-        <v>1.026127501567203</v>
+        <v>0.3236557640414333</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.7846778676868453</v>
+        <v>0.4319581672656483</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.547737177966184</v>
+        <v>3.138082626731034</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.217652358659166</v>
+        <v>0.4152526815371118</v>
       </c>
       <c r="C10">
-        <v>0.1370717526031058</v>
+        <v>0.05403247067032169</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.605492267564486</v>
+        <v>0.4987623214730945</v>
       </c>
       <c r="F10">
-        <v>1.963770142004833</v>
+        <v>2.386864053102059</v>
       </c>
       <c r="G10">
-        <v>0.0008023888456990032</v>
+        <v>0.002451181454875121</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.02937253654058658</v>
+        <v>0.0614933654202634</v>
       </c>
       <c r="K10">
-        <v>1.214990491891882</v>
+        <v>0.3812804555095113</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.9340257390502984</v>
+        <v>0.4712827911671127</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.560715748479396</v>
+        <v>3.102291214740319</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.306352528301289</v>
+        <v>0.4414582643679807</v>
       </c>
       <c r="C11">
-        <v>0.1443081659180478</v>
+        <v>0.05641649907366286</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.6465354958136373</v>
+        <v>0.5078130715178446</v>
       </c>
       <c r="F11">
-        <v>2.065179078145277</v>
+        <v>2.401185025792685</v>
       </c>
       <c r="G11">
-        <v>0.0007995668342327122</v>
+        <v>0.00244958972189274</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.02847567439765086</v>
+        <v>0.06114388826795736</v>
       </c>
       <c r="K11">
-        <v>1.301348878738651</v>
+        <v>0.4074515163631247</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.002760701253891</v>
+        <v>0.4893220988905185</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.57207950555798</v>
+        <v>3.087916854141326</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.340037707184536</v>
+        <v>0.4513829838763286</v>
       </c>
       <c r="C12">
-        <v>0.1470534264435059</v>
+        <v>0.05731743477400641</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.6622058933428576</v>
+        <v>0.511271757288128</v>
       </c>
       <c r="F12">
-        <v>2.104252763386455</v>
+        <v>2.40680162713717</v>
       </c>
       <c r="G12">
-        <v>0.0007985065012657722</v>
+        <v>0.002448998225053085</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.02814211851518156</v>
+        <v>0.06101426965359114</v>
       </c>
       <c r="K12">
-        <v>1.334129738864277</v>
+        <v>0.4173553404021106</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.028920927724023</v>
+        <v>0.4961745785251424</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.577228689292838</v>
+        <v>3.082748282058532</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.332778445204042</v>
+        <v>0.4492454702479449</v>
       </c>
       <c r="C13">
-        <v>0.1464619447569788</v>
+        <v>0.0571234849359854</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.6588250513652412</v>
+        <v>0.5105254737373031</v>
       </c>
       <c r="F13">
-        <v>2.095806622686894</v>
+        <v>2.405583381627622</v>
       </c>
       <c r="G13">
-        <v>0.0007987345027109024</v>
+        <v>0.002449125114497286</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.02821368270428071</v>
+        <v>0.06104206439585891</v>
       </c>
       <c r="K13">
-        <v>1.327066036702547</v>
+        <v>0.4152226748408054</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.0232807022171</v>
+        <v>0.4946978270175322</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.576081075984547</v>
+        <v>3.083849203189487</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.30912180020465</v>
+        <v>0.4422747548662187</v>
       </c>
       <c r="C14">
-        <v>0.1445339134281483</v>
+        <v>0.05649065683235222</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.6478220535600485</v>
+        <v>0.5080969915446616</v>
       </c>
       <c r="F14">
-        <v>2.068379853300982</v>
+        <v>2.401643227274775</v>
       </c>
       <c r="G14">
-        <v>0.0007994794368562872</v>
+        <v>0.002449540833735524</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.02844810981619084</v>
+        <v>0.06113316996042517</v>
       </c>
       <c r="K14">
-        <v>1.304044109943703</v>
+        <v>0.4082664445346325</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.004910173210682</v>
+        <v>0.4898854292540094</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.572485812043226</v>
+        <v>3.087486125110246</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.294644470620625</v>
+        <v>0.438005137742465</v>
       </c>
       <c r="C15">
-        <v>0.1433536230201184</v>
+        <v>0.05610278975582617</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.6410995393190717</v>
+        <v>0.5066135582543154</v>
       </c>
       <c r="F15">
-        <v>2.05166961116916</v>
+        <v>2.399254978568806</v>
       </c>
       <c r="G15">
-        <v>0.0007999367949510746</v>
+        <v>0.002449796938379749</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.02859249919544027</v>
+        <v>0.06118932896053941</v>
       </c>
       <c r="K15">
-        <v>1.28995324524746</v>
+        <v>0.4040046813033769</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.9936753952730157</v>
+        <v>0.4869404747576382</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.570395666313516</v>
+        <v>3.089749629359716</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.211868168800237</v>
+        <v>0.4135402823274319</v>
       </c>
       <c r="C16">
-        <v>0.1365994708301201</v>
+        <v>0.05387641338053584</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.6028271379639136</v>
+        <v>0.4981752265956629</v>
       </c>
       <c r="F16">
-        <v>1.957233487007741</v>
+        <v>2.385955225331742</v>
       </c>
       <c r="G16">
-        <v>0.0008025744626177376</v>
+        <v>0.00245128705662075</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.02943198664020841</v>
+        <v>0.06151658552636441</v>
       </c>
       <c r="K16">
-        <v>1.209356952035591</v>
+        <v>0.3795692174986982</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.9295512133409076</v>
+        <v>0.470106885229626</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.560088062941702</v>
+        <v>3.103269028824684</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.161241535642887</v>
+        <v>0.3985345668887987</v>
       </c>
       <c r="C17">
-        <v>0.1324636746610537</v>
+        <v>0.05250737070420541</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.5795610674643257</v>
+        <v>0.493054525898323</v>
       </c>
       <c r="F17">
-        <v>1.900430861164608</v>
+        <v>2.378140925521606</v>
       </c>
       <c r="G17">
-        <v>0.0008042079581535363</v>
+        <v>0.00245222130324857</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.02995757887660666</v>
+        <v>0.06172219716287852</v>
       </c>
       <c r="K17">
-        <v>1.160037677789973</v>
+        <v>0.3645675954205672</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.890428850722671</v>
+        <v>0.459818362495362</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.555204929386605</v>
+        <v>3.112051550828795</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.132173893258397</v>
+        <v>0.3899048068745969</v>
       </c>
       <c r="C18">
-        <v>0.1300873345745117</v>
+        <v>0.05171876109749007</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.5662527440705389</v>
+        <v>0.4901298172589676</v>
       </c>
       <c r="F18">
-        <v>1.868155797453952</v>
+        <v>2.373772985294835</v>
       </c>
       <c r="G18">
-        <v>0.0008051533211363069</v>
+        <v>0.002452766063599526</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.03026371770150771</v>
+        <v>0.06184224330641008</v>
       </c>
       <c r="K18">
-        <v>1.131711327038118</v>
+        <v>0.3559350666639602</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.8680004947599258</v>
+        <v>0.4539148408584026</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.552906268860283</v>
+        <v>3.1172825275479</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.12234045537565</v>
+        <v>0.3869831264120194</v>
       </c>
       <c r="C19">
-        <v>0.1292831367836271</v>
+        <v>0.051451551548098</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.5617590189705197</v>
+        <v>0.4891430986201399</v>
       </c>
       <c r="F19">
-        <v>1.857294303561176</v>
+        <v>2.372315823583122</v>
       </c>
       <c r="G19">
-        <v>0.0008054744200717834</v>
+        <v>0.002452951783765486</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.0303680235731365</v>
+        <v>0.06188319535531939</v>
       </c>
       <c r="K19">
-        <v>1.122127079305045</v>
+        <v>0.3530115687436819</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.8604188067804941</v>
+        <v>0.4519184497595035</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.552213792591999</v>
+        <v>3.119084463474024</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.166625388509573</v>
+        <v>0.4001318371813909</v>
       </c>
       <c r="C20">
-        <v>0.1329036747902848</v>
+        <v>0.05265322933297512</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.582030052924992</v>
+        <v>0.4935975035184867</v>
       </c>
       <c r="F20">
-        <v>1.906436155919891</v>
+        <v>2.378959663893042</v>
       </c>
       <c r="G20">
-        <v>0.0008040334712682097</v>
+        <v>0.002452121085100864</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.02990123073096917</v>
+        <v>0.06170012486859644</v>
       </c>
       <c r="K20">
-        <v>1.16528347203834</v>
+        <v>0.3661649601679358</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.8945857345930435</v>
+        <v>0.4609121290229794</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.555671539102832</v>
+        <v>3.111098055540026</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.31606758034431</v>
+        <v>0.4443221930487198</v>
       </c>
       <c r="C21">
-        <v>0.1451000781886336</v>
+        <v>0.05667658421936039</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.6510503018055402</v>
+        <v>0.5088094450450171</v>
       </c>
       <c r="F21">
-        <v>2.076417004234827</v>
+        <v>2.402795292315417</v>
       </c>
       <c r="G21">
-        <v>0.0007992604106552004</v>
+        <v>0.002449418421917605</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.02837908663839261</v>
+        <v>0.06110633623749706</v>
       </c>
       <c r="K21">
-        <v>1.310803943198408</v>
+        <v>0.4103098403743672</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.010302320937996</v>
+        <v>0.4912983685953876</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.57351836029963</v>
+        <v>3.086410414772985</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.414306722494217</v>
+        <v>0.4732101296685016</v>
       </c>
       <c r="C22">
-        <v>0.1531007983480492</v>
+        <v>0.05929530810712436</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.6969138399427521</v>
+        <v>0.5189341019215306</v>
       </c>
       <c r="F22">
-        <v>2.191459969152319</v>
+        <v>2.419501505696871</v>
       </c>
       <c r="G22">
-        <v>0.0007961890516107635</v>
+        <v>0.002447717670521768</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.02741973756279137</v>
+        <v>0.06073411814471896</v>
       </c>
       <c r="K22">
-        <v>1.406377229894332</v>
+        <v>0.4391224611307791</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.086707051784536</v>
+        <v>0.5112820749801941</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.590144977447437</v>
+        <v>3.071876888651985</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.361816811886712</v>
+        <v>0.4577916039974923</v>
       </c>
       <c r="C23">
-        <v>0.1488275530723513</v>
+        <v>0.05789864734572348</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.6723615314689937</v>
+        <v>0.5135136830434703</v>
       </c>
       <c r="F23">
-        <v>2.129676477097576</v>
+        <v>2.410481823238939</v>
       </c>
       <c r="G23">
-        <v>0.0007978240788092751</v>
+        <v>0.00244861940881333</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.02792844781769155</v>
+        <v>0.06093132831717618</v>
       </c>
       <c r="K23">
-        <v>1.355319930894041</v>
+        <v>0.4237483035377068</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.045851183986365</v>
+        <v>0.5006050760224809</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.580795597527327</v>
+        <v>3.079487051506788</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.164191230589438</v>
+        <v>0.3994097198902864</v>
       </c>
       <c r="C24">
-        <v>0.1327047465037197</v>
+        <v>0.05258729140554408</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.5809136149425456</v>
+        <v>0.4933519633679921</v>
       </c>
       <c r="F24">
-        <v>1.903719978348136</v>
+        <v>2.378589124141456</v>
       </c>
       <c r="G24">
-        <v>0.0008041123372995359</v>
+        <v>0.00245216636971295</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.02992669337988119</v>
+        <v>0.06171009802944116</v>
       </c>
       <c r="K24">
-        <v>1.162911762499249</v>
+        <v>0.3654428161290753</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.892706210553861</v>
+        <v>0.4604176013783601</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.555459004854299</v>
+        <v>3.111528564523269</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9529317871905505</v>
+        <v>0.3364802467327479</v>
       </c>
       <c r="C25">
-        <v>0.115403999197099</v>
+        <v>0.04681348835407562</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.4850418220536952</v>
+        <v>0.4723914256497537</v>
       </c>
       <c r="F25">
-        <v>1.674933174079612</v>
+        <v>2.349028773876128</v>
       </c>
       <c r="G25">
-        <v>0.0008111196203890524</v>
+        <v>0.002456275723666835</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.03222798214785705</v>
+        <v>0.06261834312722492</v>
       </c>
       <c r="K25">
-        <v>0.9568764585715712</v>
+        <v>0.3023998745417771</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.7302765645327725</v>
+        <v>0.417611221343364</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.547418793694888</v>
+        <v>3.152951578564554</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_17/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_17/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2901895501337322</v>
+        <v>0.7984524762132992</v>
       </c>
       <c r="C2">
-        <v>0.04252466767447061</v>
+        <v>0.1027035670301899</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.4576337759361593</v>
+        <v>0.4163454688218096</v>
       </c>
       <c r="F2">
-        <v>2.33141574223427</v>
+        <v>1.51726214525398</v>
       </c>
       <c r="G2">
-        <v>0.002459547653490467</v>
+        <v>0.0008164911831836593</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.06334602002779111</v>
+        <v>0.03404177303425193</v>
       </c>
       <c r="K2">
-        <v>0.2558571640329035</v>
+        <v>0.8059366010077724</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.3865600791276904</v>
+        <v>0.6124515108145161</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>3.189339725869459</v>
+        <v>1.556048219309559</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2588489828966374</v>
+        <v>0.6941698874751978</v>
       </c>
       <c r="C3">
-        <v>0.03959513240245371</v>
+        <v>0.09410259411214383</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.4480533624814242</v>
+        <v>0.3707511798738992</v>
       </c>
       <c r="F3">
-        <v>2.322064375550255</v>
+        <v>1.416200150747741</v>
       </c>
       <c r="G3">
-        <v>0.002461919933249564</v>
+        <v>0.0008202726570635218</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.06387607611698343</v>
+        <v>0.03534270572717002</v>
       </c>
       <c r="K3">
-        <v>0.2242407072877626</v>
+        <v>0.7038800403713026</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.3658086672436909</v>
+        <v>0.533433742403389</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>3.217667543967266</v>
+        <v>1.570046420840967</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2396227967419975</v>
+        <v>0.6302647965206347</v>
       </c>
       <c r="C4">
-        <v>0.03778527064849868</v>
+        <v>0.08881950933615457</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.4423786807834631</v>
+        <v>0.3431644896749617</v>
       </c>
       <c r="F4">
-        <v>2.31759659313029</v>
+        <v>1.356722040836331</v>
       </c>
       <c r="G4">
-        <v>0.002463453323096666</v>
+        <v>0.0008226667970918828</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.06421977872631057</v>
+        <v>0.03617601105220203</v>
       </c>
       <c r="K4">
-        <v>0.2047932749426735</v>
+        <v>0.641262465353762</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.3532120404919326</v>
+        <v>0.4852460574943294</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>3.236867881036929</v>
+        <v>1.582378406371376</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2317926763755338</v>
+        <v>0.6042440367173185</v>
       </c>
       <c r="C5">
-        <v>0.03704498807490353</v>
+        <v>0.08666542520036558</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.4401185156980816</v>
+        <v>0.3320163511951364</v>
       </c>
       <c r="F5">
-        <v>2.316096277690761</v>
+        <v>1.333092375389143</v>
       </c>
       <c r="G5">
-        <v>0.002464097561305009</v>
+        <v>0.0008236609805187256</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.06436443402015257</v>
+        <v>0.03652414996469577</v>
       </c>
       <c r="K5">
-        <v>0.1968599530749344</v>
+        <v>0.6157472797832781</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.3481154488998399</v>
+        <v>0.4656810084208658</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>3.245146269155157</v>
+        <v>1.58830375441967</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2304927875227918</v>
+        <v>0.5999242932270477</v>
       </c>
       <c r="C6">
-        <v>0.03692190002658435</v>
+        <v>0.0863076510643026</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.4397463789561087</v>
+        <v>0.33017061392637</v>
       </c>
       <c r="F6">
-        <v>2.315866498993245</v>
+        <v>1.329204311975644</v>
       </c>
       <c r="G6">
-        <v>0.002464205708208681</v>
+        <v>0.0008238271948871783</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.06438873153370395</v>
+        <v>0.03658247174236706</v>
       </c>
       <c r="K6">
-        <v>0.1955421398806578</v>
+        <v>0.6115103568896103</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.34727138295694</v>
+        <v>0.4624362741959658</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>3.246548307358438</v>
+        <v>1.589340885766106</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2395171773854656</v>
+        <v>0.6299137992660349</v>
       </c>
       <c r="C7">
-        <v>0.03777529800986912</v>
+        <v>0.08879046424662107</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.4423479874861798</v>
+        <v>0.3430137743120554</v>
       </c>
       <c r="F7">
-        <v>2.317575062320245</v>
+        <v>1.356400950806915</v>
       </c>
       <c r="G7">
-        <v>0.002463461932942235</v>
+        <v>0.000822680129417409</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.06422171099144336</v>
+        <v>0.0361806716713815</v>
       </c>
       <c r="K7">
-        <v>0.2046863165859065</v>
+        <v>0.6409183626973203</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.3531431574459347</v>
+        <v>0.4849819197226708</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>3.236977688033306</v>
+        <v>1.582454724807846</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2793800253742234</v>
+        <v>0.7624635020732455</v>
       </c>
       <c r="C8">
-        <v>0.04151689738684183</v>
+        <v>0.09973795759101733</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.4542873775857004</v>
+        <v>0.4005341877546442</v>
       </c>
       <c r="F8">
-        <v>2.327926955347252</v>
+        <v>1.481857373824013</v>
       </c>
       <c r="G8">
-        <v>0.002460349710202625</v>
+        <v>0.0008177802589579039</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.06352499978990611</v>
+        <v>0.03448309319691134</v>
       </c>
       <c r="K8">
-        <v>0.2449632714407102</v>
+        <v>0.7707321264831108</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.3793750580384696</v>
+        <v>0.5851309185382547</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>3.198731960483997</v>
+        <v>1.560074619045182</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3576717454994309</v>
+        <v>1.023892295825391</v>
       </c>
       <c r="C9">
-        <v>0.04876430401358789</v>
+        <v>0.121223387758576</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.4793470151554686</v>
+        <v>0.5170113223337083</v>
       </c>
       <c r="F9">
-        <v>2.358340538330339</v>
+        <v>1.750193957416016</v>
       </c>
       <c r="G9">
-        <v>0.002454853399063452</v>
+        <v>0.0008087274777164932</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.06230326151378041</v>
+        <v>0.03143386073337062</v>
       </c>
       <c r="K9">
-        <v>0.3236557640414333</v>
+        <v>1.02612750156726</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.4319581672656483</v>
+        <v>0.7846778676868453</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>3.138082626731034</v>
+        <v>1.547737177966184</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4152526815371118</v>
+        <v>1.217652358659279</v>
       </c>
       <c r="C10">
-        <v>0.05403247067032169</v>
+        <v>0.13707175260312</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.4987623214730945</v>
+        <v>0.6054922675645429</v>
       </c>
       <c r="F10">
-        <v>2.386864053102059</v>
+        <v>1.963770142004819</v>
       </c>
       <c r="G10">
-        <v>0.002451181454875121</v>
+        <v>0.0008023888456787879</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.0614933654202634</v>
+        <v>0.02937253654054128</v>
       </c>
       <c r="K10">
-        <v>0.3812804555095113</v>
+        <v>1.214990491891911</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.4712827911671127</v>
+        <v>0.9340257390503339</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>3.102291214740319</v>
+        <v>1.560715748479424</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4414582643679807</v>
+        <v>1.306352528301318</v>
       </c>
       <c r="C11">
-        <v>0.05641649907366286</v>
+        <v>0.1443081659178915</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.5078130715178446</v>
+        <v>0.6465354958136373</v>
       </c>
       <c r="F11">
-        <v>2.401185025792685</v>
+        <v>2.065179078145263</v>
       </c>
       <c r="G11">
-        <v>0.00244958972189274</v>
+        <v>0.0007995668342096976</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.06114388826795736</v>
+        <v>0.02847567439760645</v>
       </c>
       <c r="K11">
-        <v>0.4074515163631247</v>
+        <v>1.301348878738537</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.4893220988905185</v>
+        <v>1.002760701253884</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>3.087916854141326</v>
+        <v>1.57207950555798</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4513829838763286</v>
+        <v>1.340037707184507</v>
       </c>
       <c r="C12">
-        <v>0.05731743477400641</v>
+        <v>0.1470534264432644</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.511271757288128</v>
+        <v>0.6622058933428576</v>
       </c>
       <c r="F12">
-        <v>2.40680162713717</v>
+        <v>2.104252763386455</v>
       </c>
       <c r="G12">
-        <v>0.002448998225053085</v>
+        <v>0.0007985065013698563</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.06101426965359114</v>
+        <v>0.02814211851518067</v>
       </c>
       <c r="K12">
-        <v>0.4173553404021106</v>
+        <v>1.334129738864306</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.4961745785251424</v>
+        <v>1.028920927724016</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>3.082748282058532</v>
+        <v>1.577228689292809</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4492454702479449</v>
+        <v>1.332778445204042</v>
       </c>
       <c r="C13">
-        <v>0.0571234849359854</v>
+        <v>0.1464619447567514</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.5105254737373031</v>
+        <v>0.6588250513652412</v>
       </c>
       <c r="F13">
-        <v>2.405583381627622</v>
+        <v>2.095806622686922</v>
       </c>
       <c r="G13">
-        <v>0.002449125114497286</v>
+        <v>0.0007987345027695013</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.06104206439585891</v>
+        <v>0.02821368270428337</v>
       </c>
       <c r="K13">
-        <v>0.4152226748408054</v>
+        <v>1.327066036702632</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.4946978270175322</v>
+        <v>1.023280702217122</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>3.083849203189487</v>
+        <v>1.57608107598449</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4422747548662187</v>
+        <v>1.309121800204679</v>
       </c>
       <c r="C14">
-        <v>0.05649065683235222</v>
+        <v>0.144533913428134</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.5080969915446616</v>
+        <v>0.6478220535600343</v>
       </c>
       <c r="F14">
-        <v>2.401643227274775</v>
+        <v>2.068379853300982</v>
       </c>
       <c r="G14">
-        <v>0.002449540833735524</v>
+        <v>0.0007994794367975441</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.06113316996042517</v>
+        <v>0.02844810981623436</v>
       </c>
       <c r="K14">
-        <v>0.4082664445346325</v>
+        <v>1.304044109943646</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.4898854292540094</v>
+        <v>1.004910173210682</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>3.087486125110246</v>
+        <v>1.572485812043141</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.438005137742465</v>
+        <v>1.294644470620568</v>
       </c>
       <c r="C15">
-        <v>0.05610278975582617</v>
+        <v>0.1433536230200332</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.5066135582543154</v>
+        <v>0.6410995393190575</v>
       </c>
       <c r="F15">
-        <v>2.399254978568806</v>
+        <v>2.05166961116916</v>
       </c>
       <c r="G15">
-        <v>0.002449796938379749</v>
+        <v>0.0007999367949298337</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.06118932896053941</v>
+        <v>0.02859249919538431</v>
       </c>
       <c r="K15">
-        <v>0.4040046813033769</v>
+        <v>1.28995324524746</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.4869404747576382</v>
+        <v>0.9936753952730371</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>3.089749629359716</v>
+        <v>1.570395666313544</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4135402823274319</v>
+        <v>1.211868168800265</v>
       </c>
       <c r="C16">
-        <v>0.05387641338053584</v>
+        <v>0.1365994708296512</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.4981752265956629</v>
+        <v>0.6028271379639136</v>
       </c>
       <c r="F16">
-        <v>2.385955225331742</v>
+        <v>1.957233487007727</v>
       </c>
       <c r="G16">
-        <v>0.00245128705662075</v>
+        <v>0.0008025744625005139</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.06151658552636441</v>
+        <v>0.0294319866402537</v>
       </c>
       <c r="K16">
-        <v>0.3795692174986982</v>
+        <v>1.209356952035449</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.470106885229626</v>
+        <v>0.9295512133409076</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>3.103269028824684</v>
+        <v>1.560088062941617</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.3985345668887987</v>
+        <v>1.161241535642887</v>
       </c>
       <c r="C17">
-        <v>0.05250737070420541</v>
+        <v>0.1324636746608263</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.493054525898323</v>
+        <v>0.5795610674643115</v>
       </c>
       <c r="F17">
-        <v>2.378140925521606</v>
+        <v>1.900430861164594</v>
       </c>
       <c r="G17">
-        <v>0.00245222130324857</v>
+        <v>0.0008042079582121697</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.06172219716287852</v>
+        <v>0.02995757887645922</v>
       </c>
       <c r="K17">
-        <v>0.3645675954205672</v>
+        <v>1.160037677790058</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.459818362495362</v>
+        <v>0.8904288507226426</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>3.112051550828795</v>
+        <v>1.555204929386633</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.3899048068745969</v>
+        <v>1.132173893258454</v>
       </c>
       <c r="C18">
-        <v>0.05171876109749007</v>
+        <v>0.1300873345745401</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.4901298172589676</v>
+        <v>0.5662527440705318</v>
       </c>
       <c r="F18">
-        <v>2.373772985294835</v>
+        <v>1.868155797453952</v>
       </c>
       <c r="G18">
-        <v>0.002452766063599526</v>
+        <v>0.0008051533211737435</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.06184224330641008</v>
+        <v>0.03026371770151748</v>
       </c>
       <c r="K18">
-        <v>0.3559350666639602</v>
+        <v>1.131711327038147</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.4539148408584026</v>
+        <v>0.8680004947599329</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>3.1172825275479</v>
+        <v>1.552906268860312</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3869831264120194</v>
+        <v>1.122340455375593</v>
       </c>
       <c r="C19">
-        <v>0.051451551548098</v>
+        <v>0.1292831367839398</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.4891430986201399</v>
+        <v>0.5617590189705481</v>
       </c>
       <c r="F19">
-        <v>2.372315823583122</v>
+        <v>1.857294303561176</v>
       </c>
       <c r="G19">
-        <v>0.002452951783765486</v>
+        <v>0.0008054744201296368</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.06188319535531939</v>
+        <v>0.0303680235731445</v>
       </c>
       <c r="K19">
-        <v>0.3530115687436819</v>
+        <v>1.122127079305017</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.4519184497595035</v>
+        <v>0.8604188067805083</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>3.119084463474024</v>
+        <v>1.552213792591971</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.4001318371813909</v>
+        <v>1.166625388509573</v>
       </c>
       <c r="C20">
-        <v>0.05265322933297512</v>
+        <v>0.1329036747905121</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.4935975035184867</v>
+        <v>0.5820300529250062</v>
       </c>
       <c r="F20">
-        <v>2.378959663893042</v>
+        <v>1.906436155919877</v>
       </c>
       <c r="G20">
-        <v>0.002452121085100864</v>
+        <v>0.0008040334712673958</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.06170012486859644</v>
+        <v>0.02990123073098339</v>
       </c>
       <c r="K20">
-        <v>0.3661649601679358</v>
+        <v>1.16528347203834</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.4609121290229794</v>
+        <v>0.8945857345930364</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>3.111098055540026</v>
+        <v>1.555671539102804</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4443221930487198</v>
+        <v>1.316067580344225</v>
       </c>
       <c r="C21">
-        <v>0.05667658421936039</v>
+        <v>0.1451000781888752</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.5088094450450171</v>
+        <v>0.6510503018055545</v>
       </c>
       <c r="F21">
-        <v>2.402795292315417</v>
+        <v>2.076417004234827</v>
       </c>
       <c r="G21">
-        <v>0.002449418421917605</v>
+        <v>0.0007992604108501571</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.06110633623749706</v>
+        <v>0.02837908663842015</v>
       </c>
       <c r="K21">
-        <v>0.4103098403743672</v>
+        <v>1.310803943198408</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.4912983685953876</v>
+        <v>1.010302320937996</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>3.086410414772985</v>
+        <v>1.573518360299659</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4732101296685016</v>
+        <v>1.414306722494274</v>
       </c>
       <c r="C22">
-        <v>0.05929530810712436</v>
+        <v>0.1531007983480492</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.5189341019215306</v>
+        <v>0.6969138399427521</v>
       </c>
       <c r="F22">
-        <v>2.419501505696871</v>
+        <v>2.191459969152334</v>
       </c>
       <c r="G22">
-        <v>0.002447717670521768</v>
+        <v>0.0007961890514721156</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.06073411814471896</v>
+        <v>0.02741973756269278</v>
       </c>
       <c r="K22">
-        <v>0.4391224611307791</v>
+        <v>1.406377229894332</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.5112820749801941</v>
+        <v>1.086707051784543</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>3.071876888651985</v>
+        <v>1.590144977447466</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4577916039974923</v>
+        <v>1.361816811886712</v>
       </c>
       <c r="C23">
-        <v>0.05789864734572348</v>
+        <v>0.1488275530721097</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.5135136830434703</v>
+        <v>0.6723615314689653</v>
       </c>
       <c r="F23">
-        <v>2.410481823238939</v>
+        <v>2.12967647709759</v>
       </c>
       <c r="G23">
-        <v>0.00244861940881333</v>
+        <v>0.0007978240788449802</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.06093132831717618</v>
+        <v>0.02792844781774395</v>
       </c>
       <c r="K23">
-        <v>0.4237483035377068</v>
+        <v>1.355319930894098</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.5006050760224809</v>
+        <v>1.045851183986365</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>3.079487051506788</v>
+        <v>1.580795597527356</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.3994097198902864</v>
+        <v>1.16419123058958</v>
       </c>
       <c r="C24">
-        <v>0.05258729140554408</v>
+        <v>0.1327047465037055</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.4933519633679921</v>
+        <v>0.5809136149425456</v>
       </c>
       <c r="F24">
-        <v>2.378589124141456</v>
+        <v>1.903719978348121</v>
       </c>
       <c r="G24">
-        <v>0.00245216636971295</v>
+        <v>0.0008041123372423674</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.06171009802944116</v>
+        <v>0.02992669337988296</v>
       </c>
       <c r="K24">
-        <v>0.3654428161290753</v>
+        <v>1.162911762499277</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.4604176013783601</v>
+        <v>0.892706210553861</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>3.111528564523269</v>
+        <v>1.555459004854299</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3364802467327479</v>
+        <v>0.9529317871905221</v>
       </c>
       <c r="C25">
-        <v>0.04681348835407562</v>
+        <v>0.1154039991969142</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.4723914256497537</v>
+        <v>0.4850418220536667</v>
       </c>
       <c r="F25">
-        <v>2.349028773876128</v>
+        <v>1.674933174079655</v>
       </c>
       <c r="G25">
-        <v>0.002456275723666835</v>
+        <v>0.0008111196203288106</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.06261834312722492</v>
+        <v>0.03222798214780287</v>
       </c>
       <c r="K25">
-        <v>0.3023998745417771</v>
+        <v>0.9568764585715144</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.417611221343364</v>
+        <v>0.7302765645327582</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>3.152951578564554</v>
+        <v>1.547418793694902</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_17/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_17/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7984524762132992</v>
+        <v>2.60910074766764</v>
       </c>
       <c r="C2">
-        <v>0.1027035670301899</v>
+        <v>0.5751697147406105</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.4163454688218096</v>
+        <v>0.04778033528097714</v>
       </c>
       <c r="F2">
-        <v>1.51726214525398</v>
+        <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.0008164911831836593</v>
+        <v>0.608460553391879</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.003948177725876245</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.003518407955574787</v>
       </c>
       <c r="J2">
-        <v>0.03404177303425193</v>
+        <v>0.4540552453630085</v>
       </c>
       <c r="K2">
-        <v>0.8059366010077724</v>
+        <v>0.4200284592472023</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.6124515108145161</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.1701426484635817</v>
       </c>
       <c r="O2">
-        <v>1.556048219309559</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.4404220310058449</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6941698874751978</v>
+        <v>2.272487726598058</v>
       </c>
       <c r="C3">
-        <v>0.09410259411214383</v>
+        <v>0.50833673972312</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.3707511798738992</v>
+        <v>0.04517295924710796</v>
       </c>
       <c r="F3">
-        <v>1.416200150747741</v>
+        <v>1.26082040731464</v>
       </c>
       <c r="G3">
-        <v>0.0008202726570635218</v>
+        <v>0.5780864107354091</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.006003605014273883</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.005541154247287405</v>
       </c>
       <c r="J3">
-        <v>0.03534270572717002</v>
+        <v>0.446070944333357</v>
       </c>
       <c r="K3">
-        <v>0.7038800403713026</v>
+        <v>0.422920596392597</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.533433742403389</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.1515310741564448</v>
       </c>
       <c r="O3">
-        <v>1.570046420840967</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.3842875943757136</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6302647965206347</v>
+        <v>2.065690046196892</v>
       </c>
       <c r="C4">
-        <v>0.08881950933615457</v>
+        <v>0.4675774801937109</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.3431644896749617</v>
+        <v>0.04356511107586414</v>
       </c>
       <c r="F4">
-        <v>1.356722040836331</v>
+        <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.0008226667970918828</v>
+        <v>0.5599627036484236</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.007528589075612602</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.007118877040716232</v>
       </c>
       <c r="J4">
-        <v>0.03617601105220203</v>
+        <v>0.4415226974557385</v>
       </c>
       <c r="K4">
-        <v>0.641262465353762</v>
+        <v>0.4249861080457755</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.4852460574943294</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.1401305084096052</v>
       </c>
       <c r="O4">
-        <v>1.582378406371376</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.3498327278433351</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6042440367173185</v>
+        <v>1.9813327938719</v>
       </c>
       <c r="C5">
-        <v>0.08666542520036558</v>
+        <v>0.4516544724230869</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.3320163511951364</v>
+        <v>0.04289713205931101</v>
       </c>
       <c r="F5">
-        <v>1.333092375389143</v>
+        <v>1.090973950927975</v>
       </c>
       <c r="G5">
-        <v>0.0008236609805187256</v>
+        <v>0.5511104542630108</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.008217509159474098</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.007924638118250726</v>
       </c>
       <c r="J5">
-        <v>0.03652414996469577</v>
+        <v>0.4389264016057552</v>
       </c>
       <c r="K5">
-        <v>0.6157472797832781</v>
+        <v>0.4249649989834374</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.4656810084208658</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.1355283369199825</v>
       </c>
       <c r="O5">
-        <v>1.58830375441967</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.3358201220410706</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5999242932270477</v>
+        <v>1.967274342450366</v>
       </c>
       <c r="C6">
-        <v>0.0863076510643026</v>
+        <v>0.4497836058409348</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.33017061392637</v>
+        <v>0.04277397288426066</v>
       </c>
       <c r="F6">
-        <v>1.329204311975644</v>
+        <v>1.082851457025441</v>
       </c>
       <c r="G6">
-        <v>0.0008238271948871783</v>
+        <v>0.5477116860440674</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.008341226455537573</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.008171457062963405</v>
       </c>
       <c r="J6">
-        <v>0.03658247174236706</v>
+        <v>0.4374917937872169</v>
       </c>
       <c r="K6">
-        <v>0.6115103568896103</v>
+        <v>0.4238312593213394</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.4624362741959658</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.1348120748257742</v>
       </c>
       <c r="O6">
-        <v>1.589340885766106</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.3335279974639604</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6299137992660349</v>
+        <v>2.064418818734453</v>
       </c>
       <c r="C7">
-        <v>0.08879046424662107</v>
+        <v>0.4694712178904865</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.3430137743120554</v>
+        <v>0.0435236214678616</v>
       </c>
       <c r="F7">
-        <v>1.356400950806915</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.000822680129417409</v>
+        <v>0.55455137424795</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.007551841336264492</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.007407517949448383</v>
       </c>
       <c r="J7">
-        <v>0.0361806716713815</v>
+        <v>0.4387347144536875</v>
       </c>
       <c r="K7">
-        <v>0.6409183626973203</v>
+        <v>0.421889726084629</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.4849819197226708</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.1401993506031189</v>
       </c>
       <c r="O7">
-        <v>1.582454724807846</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.3497385152219863</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7624635020732455</v>
+        <v>2.492857025452622</v>
       </c>
       <c r="C8">
-        <v>0.09973795759101733</v>
+        <v>0.5548829300554985</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.4005341877546442</v>
+        <v>0.04684097853170988</v>
       </c>
       <c r="F8">
-        <v>1.481857373824013</v>
+        <v>1.390742831773508</v>
       </c>
       <c r="G8">
-        <v>0.0008177802589579039</v>
+        <v>0.5908719096738224</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.004614144414708754</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.004471746660842157</v>
       </c>
       <c r="J8">
-        <v>0.03448309319691134</v>
+        <v>0.4475996129341553</v>
       </c>
       <c r="K8">
-        <v>0.7707321264831108</v>
+        <v>0.4168958445019619</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.5851309185382547</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.1638947624748965</v>
       </c>
       <c r="O8">
-        <v>1.560074619045182</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.4211866734255807</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.023892295825391</v>
+        <v>3.333262952472012</v>
       </c>
       <c r="C9">
-        <v>0.121223387758576</v>
+        <v>0.7212534876962593</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.5170113223337083</v>
+        <v>0.053398702132192</v>
       </c>
       <c r="F9">
-        <v>1.750193957416016</v>
+        <v>1.895061171842798</v>
       </c>
       <c r="G9">
-        <v>0.0008087274777164932</v>
+        <v>0.6763582628928333</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.001077141407133331</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.001168944621819712</v>
       </c>
       <c r="J9">
-        <v>0.03143386073337062</v>
+        <v>0.4729659836159925</v>
       </c>
       <c r="K9">
-        <v>1.02612750156726</v>
+        <v>0.415112798166323</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.7846778676868453</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.2104346481771628</v>
       </c>
       <c r="O9">
-        <v>1.547737177966184</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.5613925853726442</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.217652358659279</v>
+        <v>3.957400952923081</v>
       </c>
       <c r="C10">
-        <v>0.13707175260312</v>
+        <v>0.8541502201917979</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.6054922675645429</v>
+        <v>0.05839975033099698</v>
       </c>
       <c r="F10">
-        <v>1.963770142004819</v>
+        <v>2.275587181990815</v>
       </c>
       <c r="G10">
-        <v>0.0008023888456787879</v>
+        <v>0.7147542231091251</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.0002793386587298663</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.0009095917666464004</v>
       </c>
       <c r="J10">
-        <v>0.02937253654054128</v>
+        <v>0.4794148903095845</v>
       </c>
       <c r="K10">
-        <v>1.214990491891911</v>
+        <v>0.4002095652316733</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.9340257390503339</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.2331663725566813</v>
       </c>
       <c r="O10">
-        <v>1.560715748479424</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0.6575299854816024</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.306352528301318</v>
+        <v>4.290178584749924</v>
       </c>
       <c r="C11">
-        <v>0.1443081659178915</v>
+        <v>0.9852502003789709</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.6465354958136373</v>
+        <v>0.06829307666957618</v>
       </c>
       <c r="F11">
-        <v>2.065179078145263</v>
+        <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.0007995668342096976</v>
+        <v>0.5215269962764637</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.01882178848479654</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.00156513030312766</v>
       </c>
       <c r="J11">
-        <v>0.02847567439760645</v>
+        <v>0.3740033872662849</v>
       </c>
       <c r="K11">
-        <v>1.301348878738537</v>
+        <v>0.2858288907985376</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.002760701253884</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.1530512436330866</v>
       </c>
       <c r="O11">
-        <v>1.57207950555798</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0.6380611423622966</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.340037707184507</v>
+        <v>4.441646233989786</v>
       </c>
       <c r="C12">
-        <v>0.1470534264432644</v>
+        <v>1.069292731223754</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.6622058933428576</v>
+        <v>0.08436295779571701</v>
       </c>
       <c r="F12">
-        <v>2.104252763386455</v>
+        <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>0.0007985065013698563</v>
+        <v>0.3812209266459092</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.05751394957082567</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.001611002124141336</v>
       </c>
       <c r="J12">
-        <v>0.02814211851518067</v>
+        <v>0.298767019355239</v>
       </c>
       <c r="K12">
-        <v>1.334129738864306</v>
+        <v>0.2183000093862244</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.028920927724016</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.0971131553889748</v>
       </c>
       <c r="O12">
-        <v>1.577228689292809</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.601410390280769</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.332778445204042</v>
+        <v>4.460479883870619</v>
       </c>
       <c r="C13">
-        <v>0.1464619447567514</v>
+        <v>1.124334645854589</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.6588250513652412</v>
+        <v>0.1056971098346047</v>
       </c>
       <c r="F13">
-        <v>2.095806622686922</v>
+        <v>2.504295469238414</v>
       </c>
       <c r="G13">
-        <v>0.0007987345027695013</v>
+        <v>0.2647422517173652</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1133297075540582</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.001496592760269699</v>
       </c>
       <c r="J13">
-        <v>0.02821368270428337</v>
+        <v>0.2377545939871339</v>
       </c>
       <c r="K13">
-        <v>1.327066036702632</v>
+        <v>0.1773389846758704</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.023280702217122</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.05688306442014124</v>
       </c>
       <c r="O13">
-        <v>1.57608107598449</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.549855938869662</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.309121800204679</v>
+        <v>4.413464820682748</v>
       </c>
       <c r="C14">
-        <v>0.144533913428134</v>
+        <v>1.150661436782059</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.6478220535600343</v>
+        <v>0.1239700922452869</v>
       </c>
       <c r="F14">
-        <v>2.068379853300982</v>
+        <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.0007994794367975441</v>
+        <v>0.1965889521360751</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1627585075062967</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.001451569098634309</v>
       </c>
       <c r="J14">
-        <v>0.02844810981623436</v>
+        <v>0.202647205914019</v>
       </c>
       <c r="K14">
-        <v>1.304044109943646</v>
+        <v>0.1631075404524991</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.004910173210682</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.03826121293777796</v>
       </c>
       <c r="O14">
-        <v>1.572485812043141</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.507470134931026</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.294644470620568</v>
+        <v>4.373246614289826</v>
       </c>
       <c r="C15">
-        <v>0.1433536230200332</v>
+        <v>1.151161893113226</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.6410995393190575</v>
+        <v>0.1284004004497348</v>
       </c>
       <c r="F15">
-        <v>2.05166961116916</v>
+        <v>2.428326063136538</v>
       </c>
       <c r="G15">
-        <v>0.0007999367949298337</v>
+        <v>0.1813001674672208</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1753152854919904</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.00153708307985756</v>
       </c>
       <c r="J15">
-        <v>0.02859249919538431</v>
+        <v>0.1952489638597683</v>
       </c>
       <c r="K15">
-        <v>1.28995324524746</v>
+        <v>0.1623544107267203</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.9936753952730371</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.03494453358060312</v>
       </c>
       <c r="O15">
-        <v>1.570395666313544</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.4940755910055756</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.211868168800265</v>
+        <v>4.097992271132227</v>
       </c>
       <c r="C16">
-        <v>0.1365994708296512</v>
+        <v>1.081474617152537</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.6028271379639136</v>
+        <v>0.1211162431294426</v>
       </c>
       <c r="F16">
-        <v>1.957233487007727</v>
+        <v>2.264147245220144</v>
       </c>
       <c r="G16">
-        <v>0.0008025744625005139</v>
+        <v>0.1867134899378939</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.162911311876158</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.00162697139138146</v>
       </c>
       <c r="J16">
-        <v>0.0294319866402537</v>
+        <v>0.2035195045634239</v>
       </c>
       <c r="K16">
-        <v>1.209356952035449</v>
+        <v>0.1749086294030089</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.9295512133409076</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.0346776494722647</v>
       </c>
       <c r="O16">
-        <v>1.560088062941617</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.4647141321236319</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.161241535642887</v>
+        <v>3.912593131234075</v>
       </c>
       <c r="C17">
-        <v>0.1324636746608263</v>
+        <v>1.014312354789951</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.5795610674643115</v>
+        <v>0.1052216948033013</v>
       </c>
       <c r="F17">
-        <v>1.900430861164594</v>
+        <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>0.0008042079582121697</v>
+        <v>0.2247124458068868</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.125384521471247</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.001803864985329362</v>
       </c>
       <c r="J17">
-        <v>0.02995757887645922</v>
+        <v>0.2274711299870447</v>
       </c>
       <c r="K17">
-        <v>1.160037677790058</v>
+        <v>0.190286999494536</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.8904288507226426</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.04267236728052026</v>
       </c>
       <c r="O17">
-        <v>1.555204929386633</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.4644405932418678</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.132173893258454</v>
+        <v>3.783739902265665</v>
       </c>
       <c r="C18">
-        <v>0.1300873345745401</v>
+        <v>0.9413571158304705</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.5662527440705318</v>
+        <v>0.08407250441418057</v>
       </c>
       <c r="F18">
-        <v>1.868155797453952</v>
+        <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.0008051533211737435</v>
+        <v>0.3088960910770808</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.07263959502073192</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.001651116887252613</v>
       </c>
       <c r="J18">
-        <v>0.03026371770151748</v>
+        <v>0.2744307747362242</v>
       </c>
       <c r="K18">
-        <v>1.131711327038147</v>
+        <v>0.2209806260845291</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.8680004947599329</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.06692902040645521</v>
       </c>
       <c r="O18">
-        <v>1.552906268860312</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.4894251125614417</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.122340455375593</v>
+        <v>3.710053469413651</v>
       </c>
       <c r="C19">
-        <v>0.1292831367839398</v>
+        <v>0.8765342126144446</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.5617590189705481</v>
+        <v>0.06637849647940364</v>
       </c>
       <c r="F19">
-        <v>1.857294303561176</v>
+        <v>2.087706772602971</v>
       </c>
       <c r="G19">
-        <v>0.0008054744201296368</v>
+        <v>0.4360558134930557</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.02722001936306384</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.001740235586504824</v>
       </c>
       <c r="J19">
-        <v>0.0303680235731445</v>
+        <v>0.3419239995452585</v>
       </c>
       <c r="K19">
-        <v>1.122127079305017</v>
+        <v>0.2753287054394988</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.8604188067805083</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.115151987212414</v>
       </c>
       <c r="O19">
-        <v>1.552213792591971</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.5339674036758169</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.166625388509573</v>
+        <v>3.793048908792628</v>
       </c>
       <c r="C20">
-        <v>0.1329036747905121</v>
+        <v>0.826204966123953</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.5820300529250062</v>
+        <v>0.05699759128035042</v>
       </c>
       <c r="F20">
-        <v>1.906436155919877</v>
+        <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.0008040334712673958</v>
+        <v>0.6871443331819336</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.0003703571869246858</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.001617207412247801</v>
       </c>
       <c r="J20">
-        <v>0.02990123073098339</v>
+        <v>0.4686826002923254</v>
       </c>
       <c r="K20">
-        <v>1.16528347203834</v>
+        <v>0.3942341513833121</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.8945857345930364</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.2270979283718475</v>
       </c>
       <c r="O20">
-        <v>1.555671539102804</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0.6322438399566579</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.316067580344225</v>
+        <v>4.26453573184358</v>
       </c>
       <c r="C21">
-        <v>0.1451000781888752</v>
+        <v>0.9166499280292157</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.6510503018055545</v>
+        <v>0.06071745960773134</v>
       </c>
       <c r="F21">
-        <v>2.076417004234827</v>
+        <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.0007992604108501571</v>
+        <v>0.7611599874748265</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1.302164420180496E-05</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.001972596011423633</v>
       </c>
       <c r="J21">
-        <v>0.02837908663842015</v>
+        <v>0.4965735491341121</v>
       </c>
       <c r="K21">
-        <v>1.310803943198408</v>
+        <v>0.40702135067367</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.010302320937996</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.2629604159152592</v>
       </c>
       <c r="O21">
-        <v>1.573518360299659</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0.7174903635306222</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.414306722494274</v>
+        <v>4.576407806964141</v>
       </c>
       <c r="C22">
-        <v>0.1531007983480492</v>
+        <v>0.9772657613522142</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.6969138399427521</v>
+        <v>0.06328768476807323</v>
       </c>
       <c r="F22">
-        <v>2.191459969152334</v>
+        <v>2.667416158031983</v>
       </c>
       <c r="G22">
-        <v>0.0007961890514721156</v>
+        <v>0.8043839252898266</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.0002425838449513495</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.002373637401186457</v>
       </c>
       <c r="J22">
-        <v>0.02741973756269278</v>
+        <v>0.5121927432717541</v>
       </c>
       <c r="K22">
-        <v>1.406377229894332</v>
+        <v>0.4126507389663416</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.086707051784543</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.2802807772441298</v>
       </c>
       <c r="O22">
-        <v>1.590144977447466</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0.7695257230445307</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.361816811886712</v>
+        <v>4.410097967402407</v>
       </c>
       <c r="C23">
-        <v>0.1488275530721097</v>
+        <v>0.9422454695148588</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.6723615314689653</v>
+        <v>0.06194398121094791</v>
       </c>
       <c r="F23">
-        <v>2.12967647709759</v>
+        <v>2.562285531758789</v>
       </c>
       <c r="G23">
-        <v>0.0007978240788449802</v>
+        <v>0.7873858415980948</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>8.611786756174133E-05</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.001821470688832427</v>
       </c>
       <c r="J23">
-        <v>0.02792844781774395</v>
+        <v>0.5069668684824933</v>
       </c>
       <c r="K23">
-        <v>1.355319930894098</v>
+        <v>0.4131022312741734</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.045851183986365</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.2708610300223171</v>
       </c>
       <c r="O23">
-        <v>1.580795597527356</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0.7416294136785098</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.16419123058958</v>
+        <v>3.781396801977053</v>
       </c>
       <c r="C24">
-        <v>0.1327047465037055</v>
+        <v>0.8150638370962611</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.5809136149425456</v>
+        <v>0.05688987816036084</v>
       </c>
       <c r="F24">
-        <v>1.903719978348121</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.0008041123372423674</v>
+        <v>0.7155481484328732</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.000226945334391937</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.001125363115326294</v>
       </c>
       <c r="J24">
-        <v>0.02992669337988296</v>
+        <v>0.4834265468488468</v>
       </c>
       <c r="K24">
-        <v>1.162911762499277</v>
+        <v>0.4103325000987468</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.892706210553861</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.235666066121837</v>
       </c>
       <c r="O24">
-        <v>1.555459004854299</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0.63648235572537</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9529317871905221</v>
+        <v>3.10548412184778</v>
       </c>
       <c r="C25">
-        <v>0.1154039991969142</v>
+        <v>0.6797939841186178</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.4850418220536667</v>
+        <v>0.05156439714639927</v>
       </c>
       <c r="F25">
-        <v>1.674933174079655</v>
+        <v>1.757113814925091</v>
       </c>
       <c r="G25">
-        <v>0.0008111196203288106</v>
+        <v>0.6431114646740212</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.00178219195734608</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.0021733140013529</v>
       </c>
       <c r="J25">
-        <v>0.03222798214780287</v>
+        <v>0.4608254045483164</v>
       </c>
       <c r="K25">
-        <v>0.9568764585715144</v>
+        <v>0.4098227106915928</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.7302765645327582</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.1980422267470558</v>
       </c>
       <c r="O25">
-        <v>1.547418793694902</v>
+        <v>0.5235768575420394</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_17/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_17/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.60910074766764</v>
+        <v>2.61534233506012</v>
       </c>
       <c r="C2">
-        <v>0.5751697147406105</v>
+        <v>0.6023827683674199</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.04778033528097714</v>
+        <v>0.04758734025380074</v>
       </c>
       <c r="F2">
         <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.608460553391879</v>
+        <v>0.4851674159936152</v>
       </c>
       <c r="H2">
-        <v>0.003948177725876245</v>
+        <v>0.003025992023345636</v>
       </c>
       <c r="I2">
-        <v>0.003518407955574787</v>
+        <v>0.002401901027572428</v>
       </c>
       <c r="J2">
-        <v>0.4540552453630085</v>
+        <v>0.4277853039345274</v>
       </c>
       <c r="K2">
-        <v>0.4200284592472023</v>
+        <v>0.3482419990937409</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.167344913533011</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.09916047804896877</v>
       </c>
       <c r="N2">
-        <v>0.1701426484635817</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.4404220310058449</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.177927630795665</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.4430846162863205</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.272487726598058</v>
+        <v>2.279048123545863</v>
       </c>
       <c r="C3">
-        <v>0.50833673972312</v>
+        <v>0.5277039017536254</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.04517295924710796</v>
+        <v>0.04535071482530029</v>
       </c>
       <c r="F3">
         <v>1.26082040731464</v>
       </c>
       <c r="G3">
-        <v>0.5780864107354091</v>
+        <v>0.4704881060552282</v>
       </c>
       <c r="H3">
-        <v>0.006003605014273883</v>
+        <v>0.004651895181845001</v>
       </c>
       <c r="I3">
-        <v>0.005541154247287405</v>
+        <v>0.003769694274256885</v>
       </c>
       <c r="J3">
-        <v>0.446070944333357</v>
+        <v>0.4227733997736038</v>
       </c>
       <c r="K3">
-        <v>0.422920596392597</v>
+        <v>0.357345469824299</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.173687362094018</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.1008589638267043</v>
       </c>
       <c r="N3">
-        <v>0.1515310741564448</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.3842875943757136</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.1592975817236209</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.3865251126326044</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.065690046196892</v>
+        <v>2.072252679996438</v>
       </c>
       <c r="C4">
-        <v>0.4675774801937109</v>
+        <v>0.4822262727098234</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.04356511107586414</v>
+        <v>0.04396978048753564</v>
       </c>
       <c r="F4">
         <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.5599627036484236</v>
+        <v>0.4619657507693233</v>
       </c>
       <c r="H4">
-        <v>0.007528589075612602</v>
+        <v>0.005863593669076461</v>
       </c>
       <c r="I4">
-        <v>0.007118877040716232</v>
+        <v>0.004870941906888415</v>
       </c>
       <c r="J4">
-        <v>0.4415226974557385</v>
+        <v>0.419714182321826</v>
       </c>
       <c r="K4">
-        <v>0.4249861080457755</v>
+        <v>0.3631470959172773</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1776642898529417</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.102500679957112</v>
       </c>
       <c r="N4">
-        <v>0.1401305084096052</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.3498327278433351</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.1478879657439194</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.3517859745191814</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.9813327938719</v>
+        <v>1.9878533494213</v>
       </c>
       <c r="C5">
-        <v>0.4516544724230869</v>
+        <v>0.4643570158976615</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.04289713205931101</v>
+        <v>0.04339747517365211</v>
       </c>
       <c r="F5">
         <v>1.090973950927975</v>
       </c>
       <c r="G5">
-        <v>0.5511104542630108</v>
+        <v>0.4573491892242316</v>
       </c>
       <c r="H5">
-        <v>0.008217509159474098</v>
+        <v>0.006412140924117404</v>
       </c>
       <c r="I5">
-        <v>0.007924638118250726</v>
+        <v>0.005475492249106928</v>
       </c>
       <c r="J5">
-        <v>0.4389264016057552</v>
+        <v>0.4177894754696609</v>
       </c>
       <c r="K5">
-        <v>0.4249649989834374</v>
+        <v>0.3648593420065325</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1789606156123398</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.103135791234795</v>
       </c>
       <c r="N5">
-        <v>0.1355283369199825</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.3358201220410706</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.14327726043485</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.337648731369967</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.967274342450366</v>
+        <v>1.973786519658006</v>
       </c>
       <c r="C6">
-        <v>0.4497836058409348</v>
+        <v>0.4621043111019958</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.04277397288426066</v>
+        <v>0.04329402645122005</v>
       </c>
       <c r="F6">
         <v>1.082851457025441</v>
       </c>
       <c r="G6">
-        <v>0.5477116860440674</v>
+        <v>0.4550589866589831</v>
       </c>
       <c r="H6">
-        <v>0.008341226455537573</v>
+        <v>0.006510761211663385</v>
       </c>
       <c r="I6">
-        <v>0.008171457062963405</v>
+        <v>0.005702366208293341</v>
       </c>
       <c r="J6">
-        <v>0.4374917937872169</v>
+        <v>0.4166398664111384</v>
       </c>
       <c r="K6">
-        <v>0.4238312593213394</v>
+        <v>0.364292708588092</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1787583147505032</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.1030280064896765</v>
       </c>
       <c r="N6">
-        <v>0.1348120748257742</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.3335279974639604</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.1425525187004197</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.3353311292631389</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.064418818734453</v>
+        <v>2.070983682052201</v>
       </c>
       <c r="C7">
-        <v>0.4694712178904865</v>
+        <v>0.482967412881635</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.0435236214678616</v>
+        <v>0.04391615783800606</v>
       </c>
       <c r="F7">
         <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.55455137424795</v>
+        <v>0.4593238382528</v>
       </c>
       <c r="H7">
-        <v>0.007551841336264492</v>
+        <v>0.005889513456338979</v>
       </c>
       <c r="I7">
-        <v>0.007407517949448383</v>
+        <v>0.005202922938178034</v>
       </c>
       <c r="J7">
-        <v>0.4387347144536875</v>
+        <v>0.4118085148880937</v>
       </c>
       <c r="K7">
-        <v>0.421889726084629</v>
+        <v>0.3597756392315503</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1760527452217033</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.1015888681291361</v>
       </c>
       <c r="N7">
-        <v>0.1401993506031189</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0.3497385152219863</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.1478550573792958</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.351636506109152</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.492857025452622</v>
+        <v>2.499244232588978</v>
       </c>
       <c r="C8">
-        <v>0.5548829300554985</v>
+        <v>0.5759186155438272</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.04684097853170988</v>
+        <v>0.04671312089303337</v>
       </c>
       <c r="F8">
         <v>1.390742831773508</v>
       </c>
       <c r="G8">
-        <v>0.5908719096738224</v>
+        <v>0.4798920753399045</v>
       </c>
       <c r="H8">
-        <v>0.004614144414708754</v>
+        <v>0.003569265882259809</v>
       </c>
       <c r="I8">
-        <v>0.004471746660842157</v>
+        <v>0.003213199904777753</v>
       </c>
       <c r="J8">
-        <v>0.4475996129341553</v>
+        <v>0.404903378970431</v>
       </c>
       <c r="K8">
-        <v>0.4168958445019619</v>
+        <v>0.3449095188760758</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1666719867532187</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.09763487480642929</v>
       </c>
       <c r="N8">
-        <v>0.1638947624748965</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0.4211866734255807</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.1713753435961607</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.4235503577524398</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.333262952472012</v>
+        <v>3.33751693589528</v>
       </c>
       <c r="C9">
-        <v>0.7212534876962593</v>
+        <v>0.7615929589065615</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.053398702132192</v>
+        <v>0.05229674495138159</v>
       </c>
       <c r="F9">
         <v>1.895061171842798</v>
       </c>
       <c r="G9">
-        <v>0.6763582628928333</v>
+        <v>0.5262906432272985</v>
       </c>
       <c r="H9">
-        <v>0.001077141407133331</v>
+        <v>0.0007938870775617834</v>
       </c>
       <c r="I9">
-        <v>0.001168944621819712</v>
+        <v>0.0010286260810215</v>
       </c>
       <c r="J9">
-        <v>0.4729659836159925</v>
+        <v>0.4154080516452154</v>
       </c>
       <c r="K9">
-        <v>0.415112798166323</v>
+        <v>0.3254828571592157</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1525583088243216</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.09706004381817479</v>
       </c>
       <c r="N9">
-        <v>0.2104346481771628</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0.5613925853726442</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.2179020042408695</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.564620294658738</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.957400952923081</v>
+        <v>3.958743687767708</v>
       </c>
       <c r="C10">
-        <v>0.8541502201917979</v>
+        <v>0.901302381443287</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.05839975033099698</v>
+        <v>0.05663541646374881</v>
       </c>
       <c r="F10">
         <v>2.275587181990815</v>
       </c>
       <c r="G10">
-        <v>0.7147542231091251</v>
+        <v>0.5537917792533591</v>
       </c>
       <c r="H10">
-        <v>0.0002793386587298663</v>
+        <v>0.0002453172180381102</v>
       </c>
       <c r="I10">
-        <v>0.0009095917666464004</v>
+        <v>0.001140126305206657</v>
       </c>
       <c r="J10">
-        <v>0.4794148903095845</v>
+        <v>0.384232985537551</v>
       </c>
       <c r="K10">
-        <v>0.4002095652316733</v>
+        <v>0.2976618642391138</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1374455958717249</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.09373358617798289</v>
       </c>
       <c r="N10">
-        <v>0.2331663725566813</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0.6575299854816024</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>0.2398174850024333</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.6608185458448901</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.290178584749924</v>
+        <v>4.291131597441563</v>
       </c>
       <c r="C11">
-        <v>0.9852502003789709</v>
+        <v>1.007289973519477</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.06829307666957618</v>
+        <v>0.06705485212458839</v>
       </c>
       <c r="F11">
         <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.5215269962764637</v>
+        <v>0.4312677080114611</v>
       </c>
       <c r="H11">
-        <v>0.01882178848479654</v>
+        <v>0.01880680791234468</v>
       </c>
       <c r="I11">
-        <v>0.00156513030312766</v>
+        <v>0.001918672734201543</v>
       </c>
       <c r="J11">
-        <v>0.3740033872662849</v>
+        <v>0.267449755492386</v>
       </c>
       <c r="K11">
-        <v>0.2858288907985376</v>
+        <v>0.215906649872414</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1081798103693181</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.06309401853179608</v>
       </c>
       <c r="N11">
-        <v>0.1530512436330866</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0.6380611423622966</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.1565476011009608</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.6399246133036911</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.441646233989786</v>
+        <v>4.442975391377786</v>
       </c>
       <c r="C12">
-        <v>1.069292731223754</v>
+        <v>1.070057820749099</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.08436295779571701</v>
+        <v>0.0828714122080374</v>
       </c>
       <c r="F12">
         <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>0.3812209266459092</v>
+        <v>0.3340855398550531</v>
       </c>
       <c r="H12">
-        <v>0.05751394957082567</v>
+        <v>0.05750147552921447</v>
       </c>
       <c r="I12">
-        <v>0.001611002124141336</v>
+        <v>0.001959951262512583</v>
       </c>
       <c r="J12">
-        <v>0.298767019355239</v>
+        <v>0.2125952319739213</v>
       </c>
       <c r="K12">
-        <v>0.2183000093862244</v>
+        <v>0.1752631549782295</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.09537213003285139</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.04595299638006622</v>
       </c>
       <c r="N12">
-        <v>0.0971131553889748</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0.601410390280769</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>0.09904069725380538</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.6023037691329947</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.460479883870619</v>
+        <v>4.462905473012597</v>
       </c>
       <c r="C13">
-        <v>1.124334645854589</v>
+        <v>1.108915288416654</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.1056971098346047</v>
+        <v>0.1037456638846841</v>
       </c>
       <c r="F13">
         <v>2.504295469238414</v>
       </c>
       <c r="G13">
-        <v>0.2647422517173652</v>
+        <v>0.2429229933466317</v>
       </c>
       <c r="H13">
-        <v>0.1133297075540582</v>
+        <v>0.1133031935069226</v>
       </c>
       <c r="I13">
-        <v>0.001496592760269699</v>
+        <v>0.001839377243805451</v>
       </c>
       <c r="J13">
-        <v>0.2377545939871339</v>
+        <v>0.1894483120504944</v>
       </c>
       <c r="K13">
-        <v>0.1773389846758704</v>
+        <v>0.1568672487440192</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.09055189583372081</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.03671014900242575</v>
       </c>
       <c r="N13">
-        <v>0.05688306442014124</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0.549855938869662</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>0.05823826702502899</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.5501396357947073</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.413464820682748</v>
+        <v>4.416941705389775</v>
       </c>
       <c r="C14">
-        <v>1.150661436782059</v>
+        <v>1.126115821149</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.1239700922452869</v>
+        <v>0.1216302307218626</v>
       </c>
       <c r="F14">
         <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.1965889521360751</v>
+        <v>0.1850173433300526</v>
       </c>
       <c r="H14">
-        <v>0.1627585075062967</v>
+        <v>0.162707982973501</v>
       </c>
       <c r="I14">
-        <v>0.001451569098634309</v>
+        <v>0.001795084573425143</v>
       </c>
       <c r="J14">
-        <v>0.202647205914019</v>
+        <v>0.1822891218827394</v>
       </c>
       <c r="K14">
-        <v>0.1631075404524991</v>
+        <v>0.1535106270303463</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.09016685776050881</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.03403978098230676</v>
       </c>
       <c r="N14">
-        <v>0.03826121293777796</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0.507470134931026</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>0.03959921390408461</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.5074645285999395</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.373246614289826</v>
+        <v>4.377128525342187</v>
       </c>
       <c r="C15">
-        <v>1.151161893113226</v>
+        <v>1.12554855317461</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.1284004004497348</v>
+        <v>0.1260589228384106</v>
       </c>
       <c r="F15">
-        <v>2.428326063136538</v>
+        <v>2.428326063099846</v>
       </c>
       <c r="G15">
-        <v>0.1813001674672208</v>
+        <v>0.1707162311895871</v>
       </c>
       <c r="H15">
-        <v>0.1753152854919904</v>
+        <v>0.175249863079614</v>
       </c>
       <c r="I15">
-        <v>0.00153708307985756</v>
+        <v>0.001896211431662742</v>
       </c>
       <c r="J15">
-        <v>0.1952489638597683</v>
+        <v>0.1830921041936016</v>
       </c>
       <c r="K15">
-        <v>0.1623544107267203</v>
+        <v>0.1545802087903634</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.09053509620846611</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.03417978311083658</v>
       </c>
       <c r="N15">
-        <v>0.03494453358060312</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0.4940755910055756</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>0.03636485473088413</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.4940492716187279</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.097992271132227</v>
+        <v>4.103208128326855</v>
       </c>
       <c r="C16">
-        <v>1.081474617152537</v>
+        <v>1.06726848494398</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.1211162431294426</v>
+        <v>0.1199673740714964</v>
       </c>
       <c r="F16">
-        <v>2.264147245220144</v>
+        <v>2.26414724522013</v>
       </c>
       <c r="G16">
-        <v>0.1867134899378939</v>
+        <v>0.1672743168004871</v>
       </c>
       <c r="H16">
-        <v>0.162911311876158</v>
+        <v>0.1627370655025402</v>
       </c>
       <c r="I16">
-        <v>0.00162697139138146</v>
+        <v>0.001915245705422564</v>
       </c>
       <c r="J16">
-        <v>0.2035195045634239</v>
+        <v>0.2104442720857804</v>
       </c>
       <c r="K16">
-        <v>0.1749086294030089</v>
+        <v>0.165878255807216</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.09291955431468235</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.03883500070568557</v>
       </c>
       <c r="N16">
-        <v>0.0346776494722647</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0.4647141321236319</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>0.03670284150637926</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.4651288561158893</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.912593131234075</v>
+        <v>3.918200593765391</v>
       </c>
       <c r="C17">
-        <v>1.014312354789951</v>
+        <v>1.01158182818827</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.1052216948033013</v>
+        <v>0.1049712869466255</v>
       </c>
       <c r="F17">
         <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>0.2247124458068868</v>
+        <v>0.193869730653347</v>
       </c>
       <c r="H17">
-        <v>0.125384521471247</v>
+        <v>0.1251279999969483</v>
       </c>
       <c r="I17">
-        <v>0.001803864985329362</v>
+        <v>0.002020127531854321</v>
       </c>
       <c r="J17">
-        <v>0.2274711299870447</v>
+        <v>0.2392104047268973</v>
       </c>
       <c r="K17">
-        <v>0.190286999494536</v>
+        <v>0.1775883063584156</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.09619757368696741</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.04362490906362515</v>
       </c>
       <c r="N17">
-        <v>0.04267236728052026</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0.4644405932418678</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>0.04522063523301156</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.4652954616010661</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.783739902265665</v>
+        <v>3.789077839225627</v>
       </c>
       <c r="C18">
-        <v>0.9413571158304705</v>
+        <v>0.9534637197650966</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.08407250441418057</v>
+        <v>0.08443483462804835</v>
       </c>
       <c r="F18">
         <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.3088960910770808</v>
+        <v>0.2558944573834907</v>
       </c>
       <c r="H18">
-        <v>0.07263959502073192</v>
+        <v>0.07235304177720536</v>
       </c>
       <c r="I18">
-        <v>0.001651116887252613</v>
+        <v>0.001783163398472176</v>
       </c>
       <c r="J18">
-        <v>0.2744307747362242</v>
+        <v>0.2798534947418219</v>
       </c>
       <c r="K18">
-        <v>0.2209806260845291</v>
+        <v>0.1984366562486386</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1034537017435575</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.05169804280713741</v>
       </c>
       <c r="N18">
-        <v>0.06692902040645521</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0.4894251125614417</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>0.07029254998163026</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.490906540177015</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.710053469413651</v>
+        <v>3.714631234727221</v>
       </c>
       <c r="C19">
-        <v>0.8765342126144446</v>
+        <v>0.9044788768633794</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.06637849647940364</v>
+        <v>0.06665391621737093</v>
       </c>
       <c r="F19">
         <v>2.087706772602971</v>
       </c>
       <c r="G19">
-        <v>0.4360558134930557</v>
+        <v>0.3476113349334469</v>
       </c>
       <c r="H19">
-        <v>0.02722001936306384</v>
+        <v>0.02697022779955915</v>
       </c>
       <c r="I19">
-        <v>0.001740235586504824</v>
+        <v>0.001913931474753383</v>
       </c>
       <c r="J19">
-        <v>0.3419239995452585</v>
+        <v>0.33098091119016</v>
       </c>
       <c r="K19">
-        <v>0.2753287054394988</v>
+        <v>0.2331671411310019</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1161611751017109</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.06502353815430517</v>
       </c>
       <c r="N19">
-        <v>0.115151987212414</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0.5339674036758169</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>0.1198261306119264</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.5362231112147242</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.793048908792628</v>
+        <v>3.795389101568333</v>
       </c>
       <c r="C20">
-        <v>0.826204966123953</v>
+        <v>0.8746581866401186</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.05699759128035042</v>
+        <v>0.05554665446111162</v>
       </c>
       <c r="F20">
         <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.6871443331819336</v>
+        <v>0.5273123948812213</v>
       </c>
       <c r="H20">
-        <v>0.0003703571869246858</v>
+        <v>0.0002883594945046752</v>
       </c>
       <c r="I20">
-        <v>0.001617207412247801</v>
+        <v>0.00194398777746585</v>
       </c>
       <c r="J20">
-        <v>0.4686826002923254</v>
+        <v>0.4038022184752066</v>
       </c>
       <c r="K20">
-        <v>0.3942341513833121</v>
+        <v>0.301586613735342</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1401149468551957</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.09319464068672545</v>
       </c>
       <c r="N20">
-        <v>0.2270979283718475</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0.6322438399566579</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>0.2341875656024115</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.6356541880425297</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.26453573184358</v>
+        <v>4.263497169993741</v>
       </c>
       <c r="C21">
-        <v>0.9166499280292157</v>
+        <v>0.9539180388442503</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.06071745960773134</v>
+        <v>0.05800215342832216</v>
       </c>
       <c r="F21">
         <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.7611599874748265</v>
+        <v>0.612634813318067</v>
       </c>
       <c r="H21">
-        <v>1.302164420180496E-05</v>
+        <v>1.336869493706594E-05</v>
       </c>
       <c r="I21">
-        <v>0.001972596011423633</v>
+        <v>0.002351282344758232</v>
       </c>
       <c r="J21">
-        <v>0.4965735491341121</v>
+        <v>0.3104841968280425</v>
       </c>
       <c r="K21">
-        <v>0.40702135067367</v>
+        <v>0.278331233039367</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1284366748975305</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.09008810121071065</v>
       </c>
       <c r="N21">
-        <v>0.2629604159152592</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0.7174903635306222</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>0.2682978055651546</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.7201618664009999</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.576407806964141</v>
+        <v>4.572787142156017</v>
       </c>
       <c r="C22">
-        <v>0.9772657613522142</v>
+        <v>1.004819947459481</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.06328768476807323</v>
+        <v>0.05983422687253892</v>
       </c>
       <c r="F22">
         <v>2.667416158031983</v>
       </c>
       <c r="G22">
-        <v>0.8043839252898266</v>
+        <v>0.6701748274276298</v>
       </c>
       <c r="H22">
-        <v>0.0002425838449513495</v>
+        <v>0.0001917493303051909</v>
       </c>
       <c r="I22">
-        <v>0.002373637401186457</v>
+        <v>0.002564241963155744</v>
       </c>
       <c r="J22">
-        <v>0.5121927432717541</v>
+        <v>0.2547134593977276</v>
       </c>
       <c r="K22">
-        <v>0.4126507389663416</v>
+        <v>0.2609387164944401</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1204734382871759</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.087204530840161</v>
       </c>
       <c r="N22">
-        <v>0.2802807772441298</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0.7695257230445307</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>0.2841898328818502</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.7715164742211726</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.410097967402407</v>
+        <v>4.407904400832081</v>
       </c>
       <c r="C23">
-        <v>0.9422454695148588</v>
+        <v>0.977898261349452</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.06194398121094791</v>
+        <v>0.05891801572356936</v>
       </c>
       <c r="F23">
         <v>2.562285531758789</v>
       </c>
       <c r="G23">
-        <v>0.7873858415980948</v>
+        <v>0.6392969742943393</v>
       </c>
       <c r="H23">
-        <v>8.611786756174133E-05</v>
+        <v>7.342015876310448E-05</v>
       </c>
       <c r="I23">
-        <v>0.001821470688832427</v>
+        <v>0.002068107225618121</v>
       </c>
       <c r="J23">
-        <v>0.5069668684824933</v>
+        <v>0.2944620884613016</v>
       </c>
       <c r="K23">
-        <v>0.4131022312741734</v>
+        <v>0.2745350031140639</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.126075781489341</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.09059687889747536</v>
       </c>
       <c r="N23">
-        <v>0.2708610300223171</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0.7416294136785098</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>0.2757749911687881</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.7441302389087596</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.781396801977053</v>
+        <v>3.783623960442924</v>
       </c>
       <c r="C24">
-        <v>0.8150638370962611</v>
+        <v>0.8651856074200168</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.05688987816036084</v>
+        <v>0.05526109656946732</v>
       </c>
       <c r="F24">
         <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.7155481484328732</v>
+        <v>0.5475017270465088</v>
       </c>
       <c r="H24">
-        <v>0.000226945334391937</v>
+        <v>0.0001502064734153485</v>
       </c>
       <c r="I24">
-        <v>0.001125363115326294</v>
+        <v>0.001354345550394598</v>
       </c>
       <c r="J24">
-        <v>0.4834265468488468</v>
+        <v>0.4151931135807843</v>
       </c>
       <c r="K24">
-        <v>0.4103325000987468</v>
+        <v>0.3121493947554939</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.143956631603082</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.09726531169801689</v>
       </c>
       <c r="N24">
-        <v>0.235666066121837</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0.63648235572537</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>0.2430354925412672</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.6400075302858141</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.10548412184778</v>
+        <v>3.110578231201828</v>
       </c>
       <c r="C25">
-        <v>0.6797939841186178</v>
+        <v>0.7159813019623869</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.05156439714639927</v>
+        <v>0.0507861550201123</v>
       </c>
       <c r="F25">
         <v>1.757113814925091</v>
       </c>
       <c r="G25">
-        <v>0.6431114646740212</v>
+        <v>0.5035454743579919</v>
       </c>
       <c r="H25">
-        <v>0.00178219195734608</v>
+        <v>0.001336529817540733</v>
       </c>
       <c r="I25">
-        <v>0.0021733140013529</v>
+        <v>0.001882331216528144</v>
       </c>
       <c r="J25">
-        <v>0.4608254045483164</v>
+        <v>0.4163978873540941</v>
       </c>
       <c r="K25">
-        <v>0.4098227106915928</v>
+        <v>0.3281153460001249</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1553552069993991</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.09581951475724004</v>
       </c>
       <c r="N25">
-        <v>0.1980422267470558</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0.5235768575420394</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>0.2056000506919631</v>
       </c>
       <c r="Q25">
+        <v>0.5266409419415581</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
